--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/19_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/19_225-80R17.xlsx
@@ -971,46 +971,46 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3454555171341648</v>
+        <v>0.3001179868780324</v>
       </c>
       <c r="G2">
-        <v>0.06899992943258881</v>
+        <v>0.06723849381462332</v>
       </c>
       <c r="H2">
-        <v>0.1614516744345657</v>
+        <v>0.1451176052042218</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.00161573932193693</v>
       </c>
       <c r="J2">
-        <v>0.09739379129742032</v>
+        <v>0.09115679552872076</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.003259147606736948</v>
       </c>
       <c r="L2">
-        <v>0.1346899374938851</v>
+        <v>0.1225741660064237</v>
       </c>
       <c r="M2">
-        <v>0.06341224457425251</v>
+        <v>0.06253156338856117</v>
       </c>
       <c r="N2">
-        <v>0.03881866319975229</v>
+        <v>0.04181452594061573</v>
       </c>
       <c r="O2">
-        <v>0.02178154022335783</v>
+        <v>0.0274628660773158</v>
       </c>
       <c r="P2">
-        <v>0.01851384297378073</v>
+        <v>0.02471023703735708</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.006453303837039973</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.0003129148083380741</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -1019,22 +1019,22 @@
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.004097612218366291</v>
       </c>
       <c r="W2">
-        <v>0.008002332220947194</v>
+        <v>0.01585559490188003</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.004974936579437216</v>
       </c>
       <c r="Y2">
-        <v>0.02286230052316134</v>
+        <v>0.02837327238465</v>
       </c>
       <c r="Z2">
-        <v>0.003595077083616135</v>
+        <v>0.0121430298902056</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.0009331696557262881</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.00118813627999412</v>
+        <v>0.01011548123820947</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -1052,19 +1052,19 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.002558305506955494</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.0006068803829187162</v>
       </c>
       <c r="AI2">
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>0.00520746772417828</v>
       </c>
       <c r="AK2">
-        <v>0.01383501312851312</v>
+        <v>0.02076890406754908</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -1216,52 +1216,52 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05190101161997565</v>
+        <v>0.05249954988237904</v>
       </c>
       <c r="F3">
-        <v>0.06301191315488792</v>
+        <v>0.06307086408036722</v>
       </c>
       <c r="G3">
-        <v>0.3515470393177259</v>
+        <v>0.3375936349139763</v>
       </c>
       <c r="H3">
-        <v>0.01754675919987499</v>
+        <v>0.01981366969266256</v>
       </c>
       <c r="I3">
-        <v>0.02000187767860808</v>
+        <v>0.0221495583467401</v>
       </c>
       <c r="J3">
-        <v>0.1192259005420184</v>
+        <v>0.1165548879576242</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.06662000972527843</v>
+        <v>0.06650373785594987</v>
       </c>
       <c r="M3">
-        <v>0.1549360628871356</v>
+        <v>0.1505308299660403</v>
       </c>
       <c r="N3">
-        <v>0.07693565887647646</v>
+        <v>0.0763184201291094</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.05064924117804098</v>
+        <v>0.05130857014019825</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.002586245488680401</v>
+        <v>0.005579695023063733</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.005637031350356311</v>
+        <v>0.008482323202534028</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1270,13 +1270,13 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.001778065598912771</v>
       </c>
       <c r="X3">
-        <v>0.008413757272152607</v>
+        <v>0.011124200827745</v>
       </c>
       <c r="Y3">
-        <v>0.006291796593882003</v>
+        <v>0.009105290573226956</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.004695695114906229</v>
+        <v>0.007586701809470107</v>
       </c>
       <c r="AK3">
         <v>0</v>
@@ -1464,43 +1464,43 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.189069297098704</v>
+        <v>0.2010930024418989</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3972252906417836</v>
+        <v>0.4289482076592687</v>
       </c>
       <c r="H4">
-        <v>0.02880281338782445</v>
+        <v>0.02565941576570692</v>
       </c>
       <c r="I4">
-        <v>0.08672919109323794</v>
+        <v>0.08906775897459109</v>
       </c>
       <c r="J4">
-        <v>0.06313498619072744</v>
+        <v>0.06324067463993038</v>
       </c>
       <c r="K4">
-        <v>0.0218072403715334</v>
+        <v>0.01800180428833091</v>
       </c>
       <c r="L4">
-        <v>0.08132000075926817</v>
+        <v>0.08314666031859</v>
       </c>
       <c r="M4">
-        <v>0.04563329297980062</v>
+        <v>0.04408267764763212</v>
       </c>
       <c r="N4">
-        <v>0.005361781275565651</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.005926727759217477</v>
+        <v>0.0006184111962295109</v>
       </c>
       <c r="Q4">
-        <v>0.008963618824198877</v>
+        <v>0.003942703833957112</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1515,16 +1515,16 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0.008433358817450961</v>
+        <v>0.003362261730899892</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0.004997269498938303</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.001030967072878661</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.01619422438923123</v>
+        <v>0.0118575905822233</v>
       </c>
       <c r="AD4">
-        <v>0.01688406860818609</v>
+        <v>0.01261271943247879</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.01848587123145311</v>
+        <v>0.01436611148826264</v>
       </c>
       <c r="AK4">
         <v>0</v>
@@ -1850,100 +1850,100 @@
         <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.3412209165654894</v>
+        <v>0.283538510743499</v>
       </c>
       <c r="AZ5">
-        <v>0.1430583231760353</v>
+        <v>0.1246821861476491</v>
       </c>
       <c r="BA5">
-        <v>0.1590394644714765</v>
+        <v>0.1374934101310341</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>0.007742865751145605</v>
       </c>
       <c r="BC5">
-        <v>0.1141425790184046</v>
+        <v>0.1015019846713416</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>0.007382812514755675</v>
       </c>
       <c r="BE5">
-        <v>0.04284770300733779</v>
+        <v>0.04434870578092902</v>
       </c>
       <c r="BF5">
-        <v>0.08322143177970087</v>
+        <v>0.07671415908523886</v>
       </c>
       <c r="BG5">
-        <v>0.03418159769000654</v>
+        <v>0.03740155387034518</v>
       </c>
       <c r="BH5">
-        <v>0</v>
+        <v>0.000735652048893229</v>
       </c>
       <c r="BI5">
-        <v>0.01678091019150602</v>
+        <v>0.02345235581952953</v>
       </c>
       <c r="BJ5">
-        <v>0</v>
+        <v>5.733985856774333E-05</v>
       </c>
       <c r="BK5">
-        <v>0.01547476241566395</v>
+        <v>0.02240528719017661</v>
       </c>
       <c r="BL5">
-        <v>0</v>
+        <v>0.0004934048220885952</v>
       </c>
       <c r="BM5">
-        <v>0</v>
+        <v>0.001340001585633336</v>
       </c>
       <c r="BN5">
-        <v>0</v>
+        <v>0.003515747903472267</v>
       </c>
       <c r="BO5">
-        <v>0</v>
+        <v>0.004586680949912463</v>
       </c>
       <c r="BP5">
-        <v>0.007829365291308066</v>
+        <v>0.0162763823021389</v>
       </c>
       <c r="BQ5">
-        <v>0</v>
+        <v>0.006571512196133822</v>
       </c>
       <c r="BR5">
-        <v>0.005503433546043419</v>
+        <v>0.01441180755070038</v>
       </c>
       <c r="BS5">
-        <v>0</v>
+        <v>0.002926960801975866</v>
       </c>
       <c r="BT5">
-        <v>0</v>
+        <v>0.0001733264127817021</v>
       </c>
       <c r="BU5">
-        <v>0</v>
+        <v>0.002794981909996249</v>
       </c>
       <c r="BV5">
-        <v>0</v>
+        <v>0.00447899855650515</v>
       </c>
       <c r="BW5">
-        <v>0.01025793049142483</v>
+        <v>0.01822323279058464</v>
       </c>
       <c r="BX5">
-        <v>0.001106333683186639</v>
+        <v>0.01088688838635765</v>
       </c>
       <c r="BY5">
-        <v>0</v>
+        <v>0.001561124984828738</v>
       </c>
       <c r="BZ5">
-        <v>0</v>
+        <v>0.000105582487993323</v>
       </c>
       <c r="CA5">
-        <v>0</v>
+        <v>0.0009177918636467605</v>
       </c>
       <c r="CB5">
-        <v>0</v>
+        <v>0.002968840631262661</v>
       </c>
       <c r="CC5">
-        <v>0.006931340748219807</v>
+        <v>0.01555648418276224</v>
       </c>
       <c r="CD5">
-        <v>0.01840390792419638</v>
+        <v>0.0247534260681202</v>
       </c>
     </row>
     <row r="6" spans="1:82">
@@ -1960,43 +1960,43 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2569698978366779</v>
+        <v>0.2579571900845962</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3285464972262234</v>
+        <v>0.329890429983233</v>
       </c>
       <c r="H6">
-        <v>0.009074404416639221</v>
+        <v>0.00882652237954289</v>
       </c>
       <c r="I6">
-        <v>0.08092126561966954</v>
+        <v>0.0810313707092961</v>
       </c>
       <c r="J6">
-        <v>0.03465868998413587</v>
+        <v>0.03453828526095704</v>
       </c>
       <c r="K6">
-        <v>0.007473657431153437</v>
+        <v>0.007217799446265523</v>
       </c>
       <c r="L6">
-        <v>0.1276677942224296</v>
+        <v>0.1280108204888279</v>
       </c>
       <c r="M6">
-        <v>0.06454831215509539</v>
+        <v>0.06457683669313478</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0002916433835806755</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.009982087413985138</v>
+        <v>0.009738728035537414</v>
       </c>
       <c r="Q6">
-        <v>0.02246599803863679</v>
+        <v>0.02228484150690989</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -2008,16 +2008,16 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.001645905900518381</v>
+        <v>0.001361010321074856</v>
       </c>
       <c r="V6">
-        <v>0.004119700699943178</v>
+        <v>0.003847131152249954</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.01009676858763494</v>
+        <v>0.009853980624321527</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -2032,10 +2032,10 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.002983326079026218</v>
+        <v>0.002705094384391414</v>
       </c>
       <c r="AD6">
-        <v>0.009285467205851031</v>
+        <v>0.009038636818892269</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.02926858379879947</v>
+        <v>0.02912132211076916</v>
       </c>
       <c r="AK6">
         <v>0</v>
@@ -2205,34 +2205,34 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1295698421646648</v>
+        <v>0.1180463502039906</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1901216916501233</v>
+        <v>0.1691422448328634</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07378648058782403</v>
+        <v>0.07097428239111447</v>
       </c>
       <c r="I7">
-        <v>0.2133336941475609</v>
+        <v>0.1887293927699224</v>
       </c>
       <c r="J7">
-        <v>0.1026763280834751</v>
+        <v>0.09535260635686701</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.002192314850620392</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2105992640211597</v>
+        <v>0.18642197929212</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.00703977997151707</v>
       </c>
       <c r="Q7">
-        <v>0.01894067998024183</v>
+        <v>0.02469336326982186</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -2253,19 +2253,19 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0.02113160414588096</v>
+        <v>0.02654214627576839</v>
       </c>
       <c r="U7">
-        <v>0.007108901262511453</v>
+        <v>0.01470926990569637</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>0.007973767862382901</v>
       </c>
       <c r="W7">
-        <v>0.01269988151506247</v>
+        <v>0.01942714624281899</v>
       </c>
       <c r="X7">
-        <v>0.000654158790193875</v>
+        <v>0.00926251899677074</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -2277,28 +2277,28 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.004440337089376086</v>
+        <v>0.01245743656023176</v>
       </c>
       <c r="AC7">
-        <v>0.007205275574564177</v>
+        <v>0.01479059412180902</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>0.006303526687432871</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>0.00563927600898405</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>0.001883948712351013</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>0.0006880426478906441</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>0.002495065630804099</v>
       </c>
       <c r="AI7">
-        <v>0.00773186098736146</v>
+        <v>0.01523494640822189</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -2456,46 +2456,46 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2671397651818446</v>
+        <v>0.2518802420561497</v>
       </c>
       <c r="F8">
-        <v>0.003869470063307822</v>
+        <v>0.007891994605963184</v>
       </c>
       <c r="G8">
-        <v>0.2546653966988548</v>
+        <v>0.2403195025399724</v>
       </c>
       <c r="H8">
-        <v>0.05553208891670811</v>
+        <v>0.05577081749805095</v>
       </c>
       <c r="I8">
-        <v>0.131030088904412</v>
+        <v>0.1257393063269947</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.001826077458850944</v>
+        <v>0.005998261094593703</v>
       </c>
       <c r="L8">
-        <v>0.01533720532774788</v>
+        <v>0.01851982722237606</v>
       </c>
       <c r="M8">
-        <v>0.1560069258257152</v>
+        <v>0.1488868272599357</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.0004855505630821153</v>
       </c>
       <c r="O8">
-        <v>0.04695736121166787</v>
+        <v>0.04782410712507343</v>
       </c>
       <c r="P8">
-        <v>0.0401187684483356</v>
+        <v>0.04148637630512006</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.003361533389797067</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -2504,19 +2504,19 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>0.002335471985560957</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>0.002469045724971699</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.006832338797995448</v>
+        <v>0.01063786135737887</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -2528,13 +2528,13 @@
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.002146759798058034</v>
+        <v>0.006295456499400522</v>
       </c>
       <c r="AD8">
-        <v>0.008381268912907606</v>
+        <v>0.01207334705845303</v>
       </c>
       <c r="AE8">
-        <v>0.004344255772566044</v>
+        <v>0.008332006773170083</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -2549,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="AJ8">
-        <v>0.005812228681027926</v>
+        <v>0.00969246461395574</v>
       </c>
       <c r="AK8">
         <v>0</v>
@@ -2842,100 +2842,100 @@
         <v>0</v>
       </c>
       <c r="AY9">
-        <v>0.4121370161436298</v>
+        <v>0.3391336842015009</v>
       </c>
       <c r="AZ9">
-        <v>0.1378595636869396</v>
+        <v>0.1200950031697248</v>
       </c>
       <c r="BA9">
-        <v>0.1029402777994161</v>
+        <v>0.09220837138550116</v>
       </c>
       <c r="BB9">
-        <v>0.03182528741788553</v>
+        <v>0.03541575662538857</v>
       </c>
       <c r="BC9">
-        <v>0.03367180977898312</v>
+        <v>0.03689039414607344</v>
       </c>
       <c r="BD9">
-        <v>0</v>
+        <v>0.001513361200913375</v>
       </c>
       <c r="BE9">
-        <v>0.04063057805676245</v>
+        <v>0.04244768444288059</v>
       </c>
       <c r="BF9">
-        <v>0.07144383239691549</v>
+        <v>0.06705522884184834</v>
       </c>
       <c r="BG9">
-        <v>0.04819759578688914</v>
+        <v>0.0484907243213144</v>
       </c>
       <c r="BH9">
-        <v>0.006189936868692311</v>
+        <v>0.01494329955030634</v>
       </c>
       <c r="BI9">
-        <v>0.06812034372667235</v>
+        <v>0.06440108221683891</v>
       </c>
       <c r="BJ9">
-        <v>0</v>
+        <v>0.002347844958649803</v>
       </c>
       <c r="BK9">
-        <v>0</v>
+        <v>0.005911425418584695</v>
       </c>
       <c r="BL9">
-        <v>0</v>
+        <v>0.004302030705287362</v>
       </c>
       <c r="BM9">
-        <v>0</v>
+        <v>0.001239496332242403</v>
       </c>
       <c r="BN9">
-        <v>0</v>
+        <v>0.004260129373042599</v>
       </c>
       <c r="BO9">
-        <v>0.0007304443823860934</v>
+        <v>0.01058333476795795</v>
       </c>
       <c r="BP9">
-        <v>0.01164225901577011</v>
+        <v>0.019297538081251</v>
       </c>
       <c r="BQ9">
-        <v>0</v>
+        <v>0.007170248545169389</v>
       </c>
       <c r="BR9">
-        <v>0.01639823761347547</v>
+        <v>0.02309567485744566</v>
       </c>
       <c r="BS9">
-        <v>0.009619442632372141</v>
+        <v>0.01768211169960586</v>
       </c>
       <c r="BT9">
-        <v>0</v>
+        <v>0.0001333398505007551</v>
       </c>
       <c r="BU9">
-        <v>0</v>
+        <v>0.0005127016780481204</v>
       </c>
       <c r="BV9">
-        <v>0</v>
+        <v>0.001282118139768732</v>
       </c>
       <c r="BW9">
-        <v>0.008593374693210436</v>
+        <v>0.01686269119664468</v>
       </c>
       <c r="BX9">
-        <v>0</v>
+        <v>0.007004737865289768</v>
       </c>
       <c r="BY9">
-        <v>0</v>
+        <v>0.003576502253568745</v>
       </c>
       <c r="BZ9">
-        <v>0</v>
+        <v>0.001041438074609414</v>
       </c>
       <c r="CA9">
-        <v>0</v>
+        <v>0.0009579221528547855</v>
       </c>
       <c r="CB9">
-        <v>0</v>
+        <v>0.0003940250544461599</v>
       </c>
       <c r="CC9">
-        <v>0</v>
+        <v>0.0036213231390038</v>
       </c>
       <c r="CD9">
-        <v>0</v>
+        <v>0.0061287757537375</v>
       </c>
     </row>
     <row r="10" spans="1:82">
@@ -2955,40 +2955,40 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.262894280987862</v>
+        <v>0.2307960221843252</v>
       </c>
       <c r="G10">
-        <v>0.02029404803172878</v>
+        <v>0.02503623533552799</v>
       </c>
       <c r="H10">
-        <v>0.2835476654032347</v>
+        <v>0.2483130539003738</v>
       </c>
       <c r="I10">
-        <v>0.01678509401067352</v>
+        <v>0.0220601391354674</v>
       </c>
       <c r="J10">
-        <v>0.1056080807598013</v>
+        <v>0.09739476927194693</v>
       </c>
       <c r="K10">
-        <v>0.002742837880433329</v>
+        <v>0.01015029225268685</v>
       </c>
       <c r="L10">
-        <v>0.03771026549957669</v>
+        <v>0.03980768526461632</v>
       </c>
       <c r="M10">
-        <v>0.0667848490744259</v>
+        <v>0.06446710148273777</v>
       </c>
       <c r="N10">
-        <v>0.04172523259481793</v>
+        <v>0.04321295311475539</v>
       </c>
       <c r="O10">
-        <v>0.02738174841217924</v>
+        <v>0.03104762164690604</v>
       </c>
       <c r="P10">
-        <v>0.07443170335729436</v>
+        <v>0.07095273048702372</v>
       </c>
       <c r="Q10">
-        <v>0.002439057479268789</v>
+        <v>0.009892642909853122</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>0.001874457712035453</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>0.004503892242884518</v>
       </c>
       <c r="W10">
-        <v>0.005410930780117188</v>
+        <v>0.01241321764085418</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>0.003302632781762975</v>
       </c>
       <c r="Y10">
-        <v>0.006861166410795883</v>
+        <v>0.01364322542202121</v>
       </c>
       <c r="Z10">
-        <v>0.0204578402964134</v>
+        <v>0.02517515466408067</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -3024,16 +3024,16 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>0.000340956367294107</v>
       </c>
       <c r="AD10">
-        <v>0.01067805750346882</v>
+        <v>0.01688049641753367</v>
       </c>
       <c r="AE10">
-        <v>0.01424714151790825</v>
+        <v>0.01990759147473131</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>0.005447838586519087</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>0.003379289704062226</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -3197,46 +3197,46 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2583014323283143</v>
+        <v>0.253987693813843</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.3139475212019018</v>
+        <v>0.3084691632083169</v>
       </c>
       <c r="G11">
-        <v>0.02764322588602534</v>
+        <v>0.02815694327506496</v>
       </c>
       <c r="H11">
-        <v>0.1132515913767564</v>
+        <v>0.1119736074612879</v>
       </c>
       <c r="I11">
-        <v>0.02701901519239199</v>
+        <v>0.02754579671491507</v>
       </c>
       <c r="J11">
-        <v>0.01291168666223315</v>
+        <v>0.01373372109357793</v>
       </c>
       <c r="K11">
-        <v>0.0484089357101613</v>
+        <v>0.04848804663092336</v>
       </c>
       <c r="L11">
-        <v>0.0532118426394587</v>
+        <v>0.05319043330660624</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.0002592281865391881</v>
       </c>
       <c r="N11">
-        <v>0.0433288700868171</v>
+        <v>0.04351430192787892</v>
       </c>
       <c r="O11">
-        <v>0.01100559239986881</v>
+        <v>0.01186751956315418</v>
       </c>
       <c r="P11">
-        <v>0.001913037033312295</v>
+        <v>0.002965262693925419</v>
       </c>
       <c r="Q11">
-        <v>0.0001079406720931751</v>
+        <v>0.001197945275063391</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -3248,16 +3248,16 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0.006717954156581079</v>
+        <v>0.007669617492140279</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>0.001009069905989256</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0.01449070241359479</v>
+        <v>0.01527968955376263</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -3269,13 +3269,13 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.01140578167443881</v>
+        <v>0.0122593332585248</v>
       </c>
       <c r="AC11">
-        <v>0.03307910996751376</v>
+        <v>0.03347905949585275</v>
       </c>
       <c r="AD11">
-        <v>0.01575460149989804</v>
+        <v>0.01651713643964464</v>
       </c>
       <c r="AE11">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.007501159098639298</v>
+        <v>0.008436430702989299</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -3712,97 +3712,97 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3454555171341648</v>
+        <v>0.3001179868780324</v>
       </c>
       <c r="G2">
-        <v>0.4144554465667536</v>
+        <v>0.3673564806926558</v>
       </c>
       <c r="H2">
-        <v>0.5759071210013194</v>
+        <v>0.5124740858968775</v>
       </c>
       <c r="I2">
-        <v>0.5759071210013194</v>
+        <v>0.5140898252188144</v>
       </c>
       <c r="J2">
-        <v>0.6733009122987397</v>
+        <v>0.6052466207475352</v>
       </c>
       <c r="K2">
-        <v>0.6733009122987397</v>
+        <v>0.6085057683542722</v>
       </c>
       <c r="L2">
-        <v>0.8079908497926247</v>
+        <v>0.7310799343606958</v>
       </c>
       <c r="M2">
-        <v>0.8714030943668772</v>
+        <v>0.793611497749257</v>
       </c>
       <c r="N2">
-        <v>0.9102217575666295</v>
+        <v>0.8354260236898727</v>
       </c>
       <c r="O2">
-        <v>0.9320032977899874</v>
+        <v>0.8628888897671885</v>
       </c>
       <c r="P2">
-        <v>0.9505171407637681</v>
+        <v>0.8875991268045456</v>
       </c>
       <c r="Q2">
-        <v>0.9505171407637681</v>
+        <v>0.8875991268045456</v>
       </c>
       <c r="R2">
-        <v>0.9505171407637681</v>
+        <v>0.8940524306415856</v>
       </c>
       <c r="S2">
-        <v>0.9505171407637681</v>
+        <v>0.8943653454499236</v>
       </c>
       <c r="T2">
-        <v>0.9505171407637681</v>
+        <v>0.8943653454499236</v>
       </c>
       <c r="U2">
-        <v>0.9505171407637681</v>
+        <v>0.8943653454499236</v>
       </c>
       <c r="V2">
-        <v>0.9505171407637681</v>
+        <v>0.8984629576682899</v>
       </c>
       <c r="W2">
-        <v>0.9585194729847153</v>
+        <v>0.9143185525701699</v>
       </c>
       <c r="X2">
-        <v>0.9585194729847153</v>
+        <v>0.9192934891496072</v>
       </c>
       <c r="Y2">
-        <v>0.9813817735078766</v>
+        <v>0.9476667615342572</v>
       </c>
       <c r="Z2">
-        <v>0.9849768505914928</v>
+        <v>0.9598097914244628</v>
       </c>
       <c r="AA2">
-        <v>0.9849768505914928</v>
+        <v>0.9607429610801891</v>
       </c>
       <c r="AB2">
-        <v>0.9849768505914928</v>
+        <v>0.9607429610801891</v>
       </c>
       <c r="AC2">
-        <v>0.9849768505914928</v>
+        <v>0.9607429610801891</v>
       </c>
       <c r="AD2">
-        <v>0.9861649868714869</v>
+        <v>0.9708584423183986</v>
       </c>
       <c r="AE2">
-        <v>0.9861649868714869</v>
+        <v>0.9708584423183986</v>
       </c>
       <c r="AF2">
-        <v>0.9861649868714869</v>
+        <v>0.9708584423183986</v>
       </c>
       <c r="AG2">
-        <v>0.9861649868714869</v>
+        <v>0.973416747825354</v>
       </c>
       <c r="AH2">
-        <v>0.9861649868714869</v>
+        <v>0.9740236282082727</v>
       </c>
       <c r="AI2">
-        <v>0.9861649868714869</v>
+        <v>0.9740236282082727</v>
       </c>
       <c r="AJ2">
-        <v>0.9861649868714869</v>
+        <v>0.9792310959324509</v>
       </c>
       <c r="AK2">
         <v>1</v>
@@ -3957,97 +3957,97 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05190101161997565</v>
+        <v>0.05249954988237904</v>
       </c>
       <c r="F3">
-        <v>0.1149129247748636</v>
+        <v>0.1155704139627463</v>
       </c>
       <c r="G3">
-        <v>0.4664599640925895</v>
+        <v>0.4531640488767225</v>
       </c>
       <c r="H3">
-        <v>0.4840067232924645</v>
+        <v>0.4729777185693851</v>
       </c>
       <c r="I3">
-        <v>0.5040086009710726</v>
+        <v>0.4951272769161252</v>
       </c>
       <c r="J3">
-        <v>0.6232345015130909</v>
+        <v>0.6116821648737494</v>
       </c>
       <c r="K3">
-        <v>0.6232345015130909</v>
+        <v>0.6116821648737494</v>
       </c>
       <c r="L3">
-        <v>0.6898545112383694</v>
+        <v>0.6781859027296993</v>
       </c>
       <c r="M3">
-        <v>0.844790574125505</v>
+        <v>0.8287167326957395</v>
       </c>
       <c r="N3">
-        <v>0.9217262330019814</v>
+        <v>0.9050351528248489</v>
       </c>
       <c r="O3">
-        <v>0.9217262330019814</v>
+        <v>0.9050351528248489</v>
       </c>
       <c r="P3">
-        <v>0.9723754741800223</v>
+        <v>0.9563437229650472</v>
       </c>
       <c r="Q3">
-        <v>0.9723754741800223</v>
+        <v>0.9563437229650472</v>
       </c>
       <c r="R3">
-        <v>0.9749617196687027</v>
+        <v>0.961923417988111</v>
       </c>
       <c r="S3">
-        <v>0.9749617196687027</v>
+        <v>0.961923417988111</v>
       </c>
       <c r="T3">
-        <v>0.980598751019059</v>
+        <v>0.970405741190645</v>
       </c>
       <c r="U3">
-        <v>0.980598751019059</v>
+        <v>0.970405741190645</v>
       </c>
       <c r="V3">
-        <v>0.980598751019059</v>
+        <v>0.970405741190645</v>
       </c>
       <c r="W3">
-        <v>0.980598751019059</v>
+        <v>0.9721838067895578</v>
       </c>
       <c r="X3">
-        <v>0.9890125082912117</v>
+        <v>0.9833080076173029</v>
       </c>
       <c r="Y3">
-        <v>0.9953043048850937</v>
+        <v>0.9924132981905298</v>
       </c>
       <c r="Z3">
-        <v>0.9953043048850937</v>
+        <v>0.9924132981905298</v>
       </c>
       <c r="AA3">
-        <v>0.9953043048850937</v>
+        <v>0.9924132981905298</v>
       </c>
       <c r="AB3">
-        <v>0.9953043048850937</v>
+        <v>0.9924132981905298</v>
       </c>
       <c r="AC3">
-        <v>0.9953043048850937</v>
+        <v>0.9924132981905298</v>
       </c>
       <c r="AD3">
-        <v>0.9953043048850937</v>
+        <v>0.9924132981905298</v>
       </c>
       <c r="AE3">
-        <v>0.9953043048850937</v>
+        <v>0.9924132981905298</v>
       </c>
       <c r="AF3">
-        <v>0.9953043048850937</v>
+        <v>0.9924132981905298</v>
       </c>
       <c r="AG3">
-        <v>0.9953043048850937</v>
+        <v>0.9924132981905298</v>
       </c>
       <c r="AH3">
-        <v>0.9953043048850937</v>
+        <v>0.9924132981905298</v>
       </c>
       <c r="AI3">
-        <v>0.9953043048850937</v>
+        <v>0.9924132981905298</v>
       </c>
       <c r="AJ3">
         <v>0.9999999999999999</v>
@@ -4205,238 +4205,238 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.189069297098704</v>
+        <v>0.2010930024418989</v>
       </c>
       <c r="F4">
-        <v>0.189069297098704</v>
+        <v>0.2010930024418989</v>
       </c>
       <c r="G4">
-        <v>0.5862945877404876</v>
+        <v>0.6300412101011675</v>
       </c>
       <c r="H4">
-        <v>0.615097401128312</v>
+        <v>0.6557006258668745</v>
       </c>
       <c r="I4">
-        <v>0.70182659222155</v>
+        <v>0.7447683848414656</v>
       </c>
       <c r="J4">
-        <v>0.7649615784122774</v>
+        <v>0.808009059481396</v>
       </c>
       <c r="K4">
-        <v>0.7867688187838108</v>
+        <v>0.8260108637697269</v>
       </c>
       <c r="L4">
-        <v>0.8680888195430789</v>
+        <v>0.9091575240883168</v>
       </c>
       <c r="M4">
-        <v>0.9137221125228796</v>
+        <v>0.9532402017359489</v>
       </c>
       <c r="N4">
-        <v>0.9190838937984452</v>
+        <v>0.9532402017359489</v>
       </c>
       <c r="O4">
-        <v>0.9190838937984452</v>
+        <v>0.9532402017359489</v>
       </c>
       <c r="P4">
-        <v>0.9250106215576627</v>
+        <v>0.9538586129321784</v>
       </c>
       <c r="Q4">
-        <v>0.9339742403818615</v>
+        <v>0.9578013167661356</v>
       </c>
       <c r="R4">
-        <v>0.9339742403818615</v>
+        <v>0.9578013167661356</v>
       </c>
       <c r="S4">
-        <v>0.9339742403818615</v>
+        <v>0.9578013167661356</v>
       </c>
       <c r="T4">
-        <v>0.9339742403818615</v>
+        <v>0.9578013167661356</v>
       </c>
       <c r="U4">
-        <v>0.9339742403818615</v>
+        <v>0.9578013167661356</v>
       </c>
       <c r="V4">
-        <v>0.9424075991993125</v>
+        <v>0.9611635784970355</v>
       </c>
       <c r="W4">
-        <v>0.9424075991993125</v>
+        <v>0.9611635784970355</v>
       </c>
       <c r="X4">
-        <v>0.9474048686982508</v>
+        <v>0.9611635784970355</v>
       </c>
       <c r="Y4">
-        <v>0.9484358357711294</v>
+        <v>0.9611635784970355</v>
       </c>
       <c r="Z4">
-        <v>0.9484358357711294</v>
+        <v>0.9611635784970355</v>
       </c>
       <c r="AA4">
-        <v>0.9484358357711294</v>
+        <v>0.9611635784970355</v>
       </c>
       <c r="AB4">
-        <v>0.9484358357711294</v>
+        <v>0.9611635784970355</v>
       </c>
       <c r="AC4">
-        <v>0.9646300601603607</v>
+        <v>0.9730211690792588</v>
       </c>
       <c r="AD4">
-        <v>0.9815141287685467</v>
+        <v>0.9856338885117376</v>
       </c>
       <c r="AE4">
-        <v>0.9815141287685467</v>
+        <v>0.9856338885117376</v>
       </c>
       <c r="AF4">
-        <v>0.9815141287685467</v>
+        <v>0.9856338885117376</v>
       </c>
       <c r="AG4">
-        <v>0.9815141287685467</v>
+        <v>0.9856338885117376</v>
       </c>
       <c r="AH4">
-        <v>0.9815141287685467</v>
+        <v>0.9856338885117376</v>
       </c>
       <c r="AI4">
-        <v>0.9815141287685467</v>
+        <v>0.9856338885117376</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AL4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AM4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AN4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AO4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AP4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AR4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AS4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AT4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AU4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AV4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AW4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AX4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AY4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AZ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BA4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BB4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BC4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BD4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BE4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BF4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BG4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BH4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BI4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BJ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BK4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BL4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BM4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BN4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BO4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BP4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BQ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BR4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BS4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BT4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BU4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BV4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BW4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BX4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BY4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BZ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CA4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CB4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CC4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CD4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:82">
@@ -4591,97 +4591,97 @@
         <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.3412209165654894</v>
+        <v>0.283538510743499</v>
       </c>
       <c r="AZ5">
-        <v>0.4842792397415247</v>
+        <v>0.4082206968911481</v>
       </c>
       <c r="BA5">
-        <v>0.6433187042130012</v>
+        <v>0.5457141070221821</v>
       </c>
       <c r="BB5">
-        <v>0.6433187042130012</v>
+        <v>0.5534569727733277</v>
       </c>
       <c r="BC5">
-        <v>0.7574612832314058</v>
+        <v>0.6549589574446694</v>
       </c>
       <c r="BD5">
-        <v>0.7574612832314058</v>
+        <v>0.6623417699594251</v>
       </c>
       <c r="BE5">
-        <v>0.8003089862387436</v>
+        <v>0.706690475740354</v>
       </c>
       <c r="BF5">
-        <v>0.8835304180184445</v>
+        <v>0.7834046348255929</v>
       </c>
       <c r="BG5">
-        <v>0.917712015708451</v>
+        <v>0.820806188695938</v>
       </c>
       <c r="BH5">
-        <v>0.917712015708451</v>
+        <v>0.8215418407448313</v>
       </c>
       <c r="BI5">
-        <v>0.934492925899957</v>
+        <v>0.8449941965643608</v>
       </c>
       <c r="BJ5">
-        <v>0.934492925899957</v>
+        <v>0.8450515364229285</v>
       </c>
       <c r="BK5">
-        <v>0.949967688315621</v>
+        <v>0.8674568236131052</v>
       </c>
       <c r="BL5">
-        <v>0.949967688315621</v>
+        <v>0.8679502284351938</v>
       </c>
       <c r="BM5">
-        <v>0.949967688315621</v>
+        <v>0.8692902300208271</v>
       </c>
       <c r="BN5">
-        <v>0.949967688315621</v>
+        <v>0.8728059779242994</v>
       </c>
       <c r="BO5">
-        <v>0.949967688315621</v>
+        <v>0.8773926588742118</v>
       </c>
       <c r="BP5">
-        <v>0.957797053606929</v>
+        <v>0.8936690411763507</v>
       </c>
       <c r="BQ5">
-        <v>0.957797053606929</v>
+        <v>0.9002405533724845</v>
       </c>
       <c r="BR5">
-        <v>0.9633004871529725</v>
+        <v>0.9146523609231849</v>
       </c>
       <c r="BS5">
-        <v>0.9633004871529725</v>
+        <v>0.9175793217251608</v>
       </c>
       <c r="BT5">
-        <v>0.9633004871529725</v>
+        <v>0.9177526481379424</v>
       </c>
       <c r="BU5">
-        <v>0.9633004871529725</v>
+        <v>0.9205476300479387</v>
       </c>
       <c r="BV5">
-        <v>0.9633004871529725</v>
+        <v>0.9250266286044438</v>
       </c>
       <c r="BW5">
-        <v>0.9735584176443973</v>
+        <v>0.9432498613950285</v>
       </c>
       <c r="BX5">
-        <v>0.974664751327584</v>
+        <v>0.9541367497813862</v>
       </c>
       <c r="BY5">
-        <v>0.974664751327584</v>
+        <v>0.9556978747662149</v>
       </c>
       <c r="BZ5">
-        <v>0.974664751327584</v>
+        <v>0.9558034572542082</v>
       </c>
       <c r="CA5">
-        <v>0.974664751327584</v>
+        <v>0.9567212491178549</v>
       </c>
       <c r="CB5">
-        <v>0.974664751327584</v>
+        <v>0.9596900897491176</v>
       </c>
       <c r="CC5">
-        <v>0.9815960920758038</v>
+        <v>0.9752465739318799</v>
       </c>
       <c r="CD5">
         <v>1</v>
@@ -4701,238 +4701,238 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2569698978366779</v>
+        <v>0.2579571900845962</v>
       </c>
       <c r="F6">
-        <v>0.2569698978366779</v>
+        <v>0.2579571900845962</v>
       </c>
       <c r="G6">
-        <v>0.5855163950629013</v>
+        <v>0.5878476200678291</v>
       </c>
       <c r="H6">
-        <v>0.5945907994795405</v>
+        <v>0.5966741424473719</v>
       </c>
       <c r="I6">
-        <v>0.67551206509921</v>
+        <v>0.677705513156668</v>
       </c>
       <c r="J6">
-        <v>0.7101707550833459</v>
+        <v>0.7122437984176251</v>
       </c>
       <c r="K6">
-        <v>0.7176444125144994</v>
+        <v>0.7194615978638906</v>
       </c>
       <c r="L6">
-        <v>0.845312206736929</v>
+        <v>0.8474724183527186</v>
       </c>
       <c r="M6">
-        <v>0.9098605188920244</v>
+        <v>0.9120492550458533</v>
       </c>
       <c r="N6">
-        <v>0.9098605188920244</v>
+        <v>0.9120492550458533</v>
       </c>
       <c r="O6">
-        <v>0.910152162275605</v>
+        <v>0.9120492550458533</v>
       </c>
       <c r="P6">
-        <v>0.9201342496895901</v>
+        <v>0.9217879830813908</v>
       </c>
       <c r="Q6">
-        <v>0.9426002477282269</v>
+        <v>0.9440728245883007</v>
       </c>
       <c r="R6">
-        <v>0.9426002477282269</v>
+        <v>0.9440728245883007</v>
       </c>
       <c r="S6">
-        <v>0.9426002477282269</v>
+        <v>0.9440728245883007</v>
       </c>
       <c r="T6">
-        <v>0.9426002477282269</v>
+        <v>0.9440728245883007</v>
       </c>
       <c r="U6">
-        <v>0.9442461536287453</v>
+        <v>0.9454338349093755</v>
       </c>
       <c r="V6">
-        <v>0.9483658543286885</v>
+        <v>0.9492809660616255</v>
       </c>
       <c r="W6">
-        <v>0.9483658543286885</v>
+        <v>0.9492809660616255</v>
       </c>
       <c r="X6">
-        <v>0.9584626229163234</v>
+        <v>0.959134946685947</v>
       </c>
       <c r="Y6">
-        <v>0.9584626229163234</v>
+        <v>0.959134946685947</v>
       </c>
       <c r="Z6">
-        <v>0.9584626229163234</v>
+        <v>0.959134946685947</v>
       </c>
       <c r="AA6">
-        <v>0.9584626229163234</v>
+        <v>0.959134946685947</v>
       </c>
       <c r="AB6">
-        <v>0.9584626229163234</v>
+        <v>0.959134946685947</v>
       </c>
       <c r="AC6">
-        <v>0.9614459489953496</v>
+        <v>0.9618400410703384</v>
       </c>
       <c r="AD6">
-        <v>0.9707314162012006</v>
+        <v>0.9708786778892307</v>
       </c>
       <c r="AE6">
-        <v>0.9707314162012006</v>
+        <v>0.9708786778892307</v>
       </c>
       <c r="AF6">
-        <v>0.9707314162012006</v>
+        <v>0.9708786778892307</v>
       </c>
       <c r="AG6">
-        <v>0.9707314162012006</v>
+        <v>0.9708786778892307</v>
       </c>
       <c r="AH6">
-        <v>0.9707314162012006</v>
+        <v>0.9708786778892307</v>
       </c>
       <c r="AI6">
-        <v>0.9707314162012006</v>
+        <v>0.9708786778892307</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AL6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AM6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AN6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AO6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AR6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AS6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AU6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AV6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AW6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AX6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AY6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AZ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BA6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BB6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BC6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BD6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BE6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BF6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BG6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BH6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BI6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BJ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BK6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BL6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BM6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BN6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BO6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BP6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BQ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BR6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BS6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BT6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BU6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BV6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BW6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BX6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BY6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BZ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CA6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CB6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CC6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CD6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:82">
@@ -4946,97 +4946,97 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1295698421646648</v>
+        <v>0.1180463502039906</v>
       </c>
       <c r="E7">
-        <v>0.1295698421646648</v>
+        <v>0.1180463502039906</v>
       </c>
       <c r="F7">
-        <v>0.3196915338147881</v>
+        <v>0.287188595036854</v>
       </c>
       <c r="G7">
-        <v>0.3196915338147881</v>
+        <v>0.287188595036854</v>
       </c>
       <c r="H7">
-        <v>0.3934780144026121</v>
+        <v>0.3581628774279684</v>
       </c>
       <c r="I7">
-        <v>0.606811708550173</v>
+        <v>0.5468922701978909</v>
       </c>
       <c r="J7">
-        <v>0.7094880366336481</v>
+        <v>0.6422448765547579</v>
       </c>
       <c r="K7">
-        <v>0.7094880366336481</v>
+        <v>0.6444371914053784</v>
       </c>
       <c r="L7">
-        <v>0.7094880366336481</v>
+        <v>0.6444371914053784</v>
       </c>
       <c r="M7">
-        <v>0.9200873006548078</v>
+        <v>0.8308591706974984</v>
       </c>
       <c r="N7">
-        <v>0.9200873006548078</v>
+        <v>0.8308591706974984</v>
       </c>
       <c r="O7">
-        <v>0.9200873006548078</v>
+        <v>0.8308591706974984</v>
       </c>
       <c r="P7">
-        <v>0.9200873006548078</v>
+        <v>0.8378989506690154</v>
       </c>
       <c r="Q7">
-        <v>0.9390279806350497</v>
+        <v>0.8625923139388373</v>
       </c>
       <c r="R7">
-        <v>0.9390279806350497</v>
+        <v>0.8625923139388373</v>
       </c>
       <c r="S7">
-        <v>0.9390279806350497</v>
+        <v>0.8625923139388373</v>
       </c>
       <c r="T7">
-        <v>0.9601595847809307</v>
+        <v>0.8891344602146056</v>
       </c>
       <c r="U7">
-        <v>0.9672684860434421</v>
+        <v>0.9038437301203019</v>
       </c>
       <c r="V7">
-        <v>0.9672684860434421</v>
+        <v>0.9118174979826849</v>
       </c>
       <c r="W7">
-        <v>0.9799683675585046</v>
+        <v>0.9312446442255038</v>
       </c>
       <c r="X7">
-        <v>0.9806225263486985</v>
+        <v>0.9405071632222746</v>
       </c>
       <c r="Y7">
-        <v>0.9806225263486985</v>
+        <v>0.9405071632222746</v>
       </c>
       <c r="Z7">
-        <v>0.9806225263486985</v>
+        <v>0.9405071632222746</v>
       </c>
       <c r="AA7">
-        <v>0.9806225263486985</v>
+        <v>0.9405071632222746</v>
       </c>
       <c r="AB7">
-        <v>0.9850628634380746</v>
+        <v>0.9529645997825064</v>
       </c>
       <c r="AC7">
-        <v>0.9922681390126388</v>
+        <v>0.9677551939043154</v>
       </c>
       <c r="AD7">
-        <v>0.9922681390126388</v>
+        <v>0.9740587205917483</v>
       </c>
       <c r="AE7">
-        <v>0.9922681390126388</v>
+        <v>0.9796979966007323</v>
       </c>
       <c r="AF7">
-        <v>0.9922681390126388</v>
+        <v>0.9815819453130833</v>
       </c>
       <c r="AG7">
-        <v>0.9922681390126388</v>
+        <v>0.982269987960974</v>
       </c>
       <c r="AH7">
-        <v>0.9922681390126388</v>
+        <v>0.9847650535917781</v>
       </c>
       <c r="AI7">
         <v>1</v>
@@ -5197,238 +5197,238 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2671397651818446</v>
+        <v>0.2518802420561497</v>
       </c>
       <c r="F8">
-        <v>0.2710092352451525</v>
+        <v>0.2597722366621129</v>
       </c>
       <c r="G8">
-        <v>0.5256746319440073</v>
+        <v>0.5000917392020853</v>
       </c>
       <c r="H8">
-        <v>0.5812067208607155</v>
+        <v>0.5558625567001362</v>
       </c>
       <c r="I8">
-        <v>0.7122368097651275</v>
+        <v>0.6816018630271309</v>
       </c>
       <c r="J8">
-        <v>0.7122368097651275</v>
+        <v>0.6816018630271309</v>
       </c>
       <c r="K8">
-        <v>0.7140628872239785</v>
+        <v>0.6876001241217246</v>
       </c>
       <c r="L8">
-        <v>0.7294000925517263</v>
+        <v>0.7061199513441007</v>
       </c>
       <c r="M8">
-        <v>0.8854070183774415</v>
+        <v>0.8550067786040363</v>
       </c>
       <c r="N8">
-        <v>0.8854070183774415</v>
+        <v>0.8554923291671184</v>
       </c>
       <c r="O8">
-        <v>0.9323643795891093</v>
+        <v>0.9033164362921918</v>
       </c>
       <c r="P8">
-        <v>0.972483148037445</v>
+        <v>0.9448028125973119</v>
       </c>
       <c r="Q8">
-        <v>0.972483148037445</v>
+        <v>0.9448028125973119</v>
       </c>
       <c r="R8">
-        <v>0.972483148037445</v>
+        <v>0.948164345987109</v>
       </c>
       <c r="S8">
-        <v>0.972483148037445</v>
+        <v>0.948164345987109</v>
       </c>
       <c r="T8">
-        <v>0.972483148037445</v>
+        <v>0.948164345987109</v>
       </c>
       <c r="U8">
-        <v>0.972483148037445</v>
+        <v>0.9504998179726699</v>
       </c>
       <c r="V8">
-        <v>0.972483148037445</v>
+        <v>0.9504998179726699</v>
       </c>
       <c r="W8">
-        <v>0.972483148037445</v>
+        <v>0.9529688636976417</v>
       </c>
       <c r="X8">
-        <v>0.972483148037445</v>
+        <v>0.9529688636976417</v>
       </c>
       <c r="Y8">
-        <v>0.9793154868354405</v>
+        <v>0.9636067250550205</v>
       </c>
       <c r="Z8">
-        <v>0.9793154868354405</v>
+        <v>0.9636067250550205</v>
       </c>
       <c r="AA8">
-        <v>0.9793154868354405</v>
+        <v>0.9636067250550205</v>
       </c>
       <c r="AB8">
-        <v>0.9793154868354405</v>
+        <v>0.9636067250550205</v>
       </c>
       <c r="AC8">
-        <v>0.9814622466334985</v>
+        <v>0.9699021815544211</v>
       </c>
       <c r="AD8">
-        <v>0.989843515546406</v>
+        <v>0.9819755286128741</v>
       </c>
       <c r="AE8">
-        <v>0.9941877713189721</v>
+        <v>0.9903075353860441</v>
       </c>
       <c r="AF8">
-        <v>0.9941877713189721</v>
+        <v>0.9903075353860441</v>
       </c>
       <c r="AG8">
-        <v>0.9941877713189721</v>
+        <v>0.9903075353860441</v>
       </c>
       <c r="AH8">
-        <v>0.9941877713189721</v>
+        <v>0.9903075353860441</v>
       </c>
       <c r="AI8">
-        <v>0.9941877713189721</v>
+        <v>0.9903075353860441</v>
       </c>
       <c r="AJ8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AS8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AT8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AU8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AV8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AW8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AX8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AY8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AZ8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BA8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BB8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BC8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BD8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BE8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BF8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BG8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BH8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BI8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BJ8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BK8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BL8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BM8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BW8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BX8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BY8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BZ8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CA8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CB8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CC8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CD8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:82">
@@ -5583,97 +5583,97 @@
         <v>0</v>
       </c>
       <c r="AY9">
-        <v>0.4121370161436298</v>
+        <v>0.3391336842015009</v>
       </c>
       <c r="AZ9">
-        <v>0.5499965798305694</v>
+        <v>0.4592286873712257</v>
       </c>
       <c r="BA9">
-        <v>0.6529368576299855</v>
+        <v>0.5514370587567269</v>
       </c>
       <c r="BB9">
-        <v>0.684762145047871</v>
+        <v>0.5868528153821154</v>
       </c>
       <c r="BC9">
-        <v>0.7184339548268541</v>
+        <v>0.6237432095281888</v>
       </c>
       <c r="BD9">
-        <v>0.7184339548268541</v>
+        <v>0.6252565707291022</v>
       </c>
       <c r="BE9">
-        <v>0.7590645328836165</v>
+        <v>0.6677042551719828</v>
       </c>
       <c r="BF9">
-        <v>0.8305083652805321</v>
+        <v>0.7347594840138312</v>
       </c>
       <c r="BG9">
-        <v>0.8787059610674212</v>
+        <v>0.7832502083351456</v>
       </c>
       <c r="BH9">
-        <v>0.8848958979361135</v>
+        <v>0.798193507885452</v>
       </c>
       <c r="BI9">
-        <v>0.9530162416627858</v>
+        <v>0.8625945901022909</v>
       </c>
       <c r="BJ9">
-        <v>0.9530162416627858</v>
+        <v>0.8649424350609407</v>
       </c>
       <c r="BK9">
-        <v>0.9530162416627858</v>
+        <v>0.8708538604795254</v>
       </c>
       <c r="BL9">
-        <v>0.9530162416627858</v>
+        <v>0.8751558911848127</v>
       </c>
       <c r="BM9">
-        <v>0.9530162416627858</v>
+        <v>0.8763953875170551</v>
       </c>
       <c r="BN9">
-        <v>0.9530162416627858</v>
+        <v>0.8806555168900978</v>
       </c>
       <c r="BO9">
-        <v>0.9537466860451719</v>
+        <v>0.8912388516580557</v>
       </c>
       <c r="BP9">
-        <v>0.965388945060942</v>
+        <v>0.9105363897393067</v>
       </c>
       <c r="BQ9">
-        <v>0.965388945060942</v>
+        <v>0.9177066382844761</v>
       </c>
       <c r="BR9">
-        <v>0.9817871826744174</v>
+        <v>0.9408023131419218</v>
       </c>
       <c r="BS9">
-        <v>0.9914066253067896</v>
+        <v>0.9584844248415276</v>
       </c>
       <c r="BT9">
-        <v>0.9914066253067896</v>
+        <v>0.9586177646920284</v>
       </c>
       <c r="BU9">
-        <v>0.9914066253067896</v>
+        <v>0.9591304663700765</v>
       </c>
       <c r="BV9">
-        <v>0.9914066253067896</v>
+        <v>0.9604125845098452</v>
       </c>
       <c r="BW9">
-        <v>1</v>
+        <v>0.9772752757064899</v>
       </c>
       <c r="BX9">
-        <v>1</v>
+        <v>0.9842800135717796</v>
       </c>
       <c r="BY9">
-        <v>1</v>
+        <v>0.9878565158253484</v>
       </c>
       <c r="BZ9">
-        <v>1</v>
+        <v>0.9888979538999578</v>
       </c>
       <c r="CA9">
-        <v>1</v>
+        <v>0.9898558760528127</v>
       </c>
       <c r="CB9">
-        <v>1</v>
+        <v>0.9902499011072589</v>
       </c>
       <c r="CC9">
-        <v>1</v>
+        <v>0.9938712242462626</v>
       </c>
       <c r="CD9">
         <v>1</v>
@@ -5696,235 +5696,235 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.262894280987862</v>
+        <v>0.2307960221843252</v>
       </c>
       <c r="G10">
-        <v>0.2831883290195908</v>
+        <v>0.2558322575198532</v>
       </c>
       <c r="H10">
-        <v>0.5667359944228254</v>
+        <v>0.504145311420227</v>
       </c>
       <c r="I10">
-        <v>0.5835210884334989</v>
+        <v>0.5262054505556945</v>
       </c>
       <c r="J10">
-        <v>0.6891291691933001</v>
+        <v>0.6236002198276414</v>
       </c>
       <c r="K10">
-        <v>0.6918720070737334</v>
+        <v>0.6337505120803282</v>
       </c>
       <c r="L10">
-        <v>0.7295822725733101</v>
+        <v>0.6735581973449445</v>
       </c>
       <c r="M10">
-        <v>0.796367121647736</v>
+        <v>0.7380252988276823</v>
       </c>
       <c r="N10">
-        <v>0.838092354242554</v>
+        <v>0.7812382519424377</v>
       </c>
       <c r="O10">
-        <v>0.8654741026547332</v>
+        <v>0.8122858735893437</v>
       </c>
       <c r="P10">
-        <v>0.9399058060120276</v>
+        <v>0.8832386040763673</v>
       </c>
       <c r="Q10">
-        <v>0.9423448634912963</v>
+        <v>0.8931312469862205</v>
       </c>
       <c r="R10">
-        <v>0.9423448634912963</v>
+        <v>0.8931312469862205</v>
       </c>
       <c r="S10">
-        <v>0.9423448634912963</v>
+        <v>0.8931312469862205</v>
       </c>
       <c r="T10">
-        <v>0.9423448634912963</v>
+        <v>0.8950057046982559</v>
       </c>
       <c r="U10">
-        <v>0.9423448634912963</v>
+        <v>0.8950057046982559</v>
       </c>
       <c r="V10">
-        <v>0.9423448634912963</v>
+        <v>0.8995095969411404</v>
       </c>
       <c r="W10">
-        <v>0.9477557942714135</v>
+        <v>0.9119228145819945</v>
       </c>
       <c r="X10">
-        <v>0.9477557942714135</v>
+        <v>0.9152254473637575</v>
       </c>
       <c r="Y10">
-        <v>0.9546169606822095</v>
+        <v>0.9288686727857788</v>
       </c>
       <c r="Z10">
-        <v>0.9750748009786229</v>
+        <v>0.9540438274498595</v>
       </c>
       <c r="AA10">
-        <v>0.9750748009786229</v>
+        <v>0.9540438274498595</v>
       </c>
       <c r="AB10">
-        <v>0.9750748009786229</v>
+        <v>0.9540438274498595</v>
       </c>
       <c r="AC10">
-        <v>0.9750748009786229</v>
+        <v>0.9543847838171536</v>
       </c>
       <c r="AD10">
-        <v>0.9857528584820917</v>
+        <v>0.9712652802346873</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>0.9911728717094186</v>
       </c>
       <c r="AF10">
-        <v>1</v>
+        <v>0.9966207102959377</v>
       </c>
       <c r="AG10">
-        <v>1</v>
+        <v>0.9966207102959377</v>
       </c>
       <c r="AH10">
-        <v>1</v>
+        <v>0.9966207102959377</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>0.9966207102959377</v>
       </c>
       <c r="AJ10">
-        <v>1</v>
+        <v>0.9966207102959377</v>
       </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AS10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AT10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AU10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AV10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AW10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AX10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AY10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AZ10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BA10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BB10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BC10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BD10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BE10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BF10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BG10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BH10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BI10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BJ10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BK10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BL10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BM10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BW10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BX10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BY10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BZ10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CA10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CB10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CC10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CD10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:82">
@@ -5938,241 +5938,241 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2583014323283143</v>
+        <v>0.253987693813843</v>
       </c>
       <c r="E11">
-        <v>0.2583014323283143</v>
+        <v>0.253987693813843</v>
       </c>
       <c r="F11">
-        <v>0.5722489535302161</v>
+        <v>0.5624568570221599</v>
       </c>
       <c r="G11">
-        <v>0.5998921794162414</v>
+        <v>0.5906138002972249</v>
       </c>
       <c r="H11">
-        <v>0.7131437707929977</v>
+        <v>0.7025874077585128</v>
       </c>
       <c r="I11">
-        <v>0.7401627859853898</v>
+        <v>0.7301332044734279</v>
       </c>
       <c r="J11">
-        <v>0.753074472647623</v>
+        <v>0.7438669255670058</v>
       </c>
       <c r="K11">
-        <v>0.8014834083577842</v>
+        <v>0.7923549721979292</v>
       </c>
       <c r="L11">
-        <v>0.8546952509972429</v>
+        <v>0.8455454055045354</v>
       </c>
       <c r="M11">
-        <v>0.8546952509972429</v>
+        <v>0.8458046336910746</v>
       </c>
       <c r="N11">
-        <v>0.8980241210840599</v>
+        <v>0.8893189356189536</v>
       </c>
       <c r="O11">
-        <v>0.9090297134839287</v>
+        <v>0.9011864551821077</v>
       </c>
       <c r="P11">
-        <v>0.9109427505172409</v>
+        <v>0.9041517178760331</v>
       </c>
       <c r="Q11">
-        <v>0.9110506911893341</v>
+        <v>0.9053496631510964</v>
       </c>
       <c r="R11">
-        <v>0.9110506911893341</v>
+        <v>0.9053496631510964</v>
       </c>
       <c r="S11">
-        <v>0.9110506911893341</v>
+        <v>0.9053496631510964</v>
       </c>
       <c r="T11">
-        <v>0.9110506911893341</v>
+        <v>0.9053496631510964</v>
       </c>
       <c r="U11">
-        <v>0.9177686453459152</v>
+        <v>0.9130192806432367</v>
       </c>
       <c r="V11">
-        <v>0.9177686453459152</v>
+        <v>0.9140283505492259</v>
       </c>
       <c r="W11">
-        <v>0.9177686453459152</v>
+        <v>0.9140283505492259</v>
       </c>
       <c r="X11">
-        <v>0.9322593477595099</v>
+        <v>0.9293080401029885</v>
       </c>
       <c r="Y11">
-        <v>0.9322593477595099</v>
+        <v>0.9293080401029885</v>
       </c>
       <c r="Z11">
-        <v>0.9322593477595099</v>
+        <v>0.9293080401029885</v>
       </c>
       <c r="AA11">
-        <v>0.9322593477595099</v>
+        <v>0.9293080401029885</v>
       </c>
       <c r="AB11">
-        <v>0.9436651294339488</v>
+        <v>0.9415673733615133</v>
       </c>
       <c r="AC11">
-        <v>0.9767442394014625</v>
+        <v>0.975046432857366</v>
       </c>
       <c r="AD11">
-        <v>0.9924988409013605</v>
+        <v>0.9915635692970106</v>
       </c>
       <c r="AE11">
-        <v>0.9924988409013605</v>
+        <v>0.9915635692970106</v>
       </c>
       <c r="AF11">
-        <v>0.9924988409013605</v>
+        <v>0.9915635692970106</v>
       </c>
       <c r="AG11">
-        <v>0.9924988409013605</v>
+        <v>0.9915635692970106</v>
       </c>
       <c r="AH11">
-        <v>0.9924988409013605</v>
+        <v>0.9915635692970106</v>
       </c>
       <c r="AI11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AS11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AT11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AU11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AV11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AW11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AX11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AY11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AZ11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BA11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BB11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BC11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BD11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BE11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BF11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BG11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BH11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BI11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BJ11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BK11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BL11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BM11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BW11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BX11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BY11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BZ11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CA11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CB11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CC11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CD11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5759071210013194</v>
+        <v>0.5124740858968775</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -6281,16 +6281,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5040086009710726</v>
+        <v>0.6116821648737494</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H3">
         <v>19</v>
@@ -6328,7 +6328,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5862945877404876</v>
+        <v>0.6300412101011675</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -6369,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6433187042130012</v>
+        <v>0.5457141070221821</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -6410,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5855163950629013</v>
+        <v>0.5878476200678291</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -6451,7 +6451,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.606811708550173</v>
+        <v>0.5468922701978909</v>
       </c>
       <c r="G7">
         <v>7</v>
@@ -6492,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5256746319440073</v>
+        <v>0.5000917392020853</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -6527,16 +6527,16 @@
         <v>48</v>
       </c>
       <c r="D9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5499965798305694</v>
+        <v>0.5514370587567269</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9">
         <v>19</v>
@@ -6574,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5667359944228254</v>
+        <v>0.504145311420227</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -6615,7 +6615,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5722489535302161</v>
+        <v>0.5624568570221599</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -6710,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8079908497926247</v>
+        <v>0.7310799343606958</v>
       </c>
       <c r="G2">
         <v>8</v>
@@ -6751,7 +6751,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.844790574125505</v>
+        <v>0.8287167326957395</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -6792,7 +6792,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.70182659222155</v>
+        <v>0.7447683848414656</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -6827,16 +6827,16 @@
         <v>48</v>
       </c>
       <c r="D5">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7574612832314058</v>
+        <v>0.706690475740354</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>19</v>
@@ -6874,7 +6874,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7101707550833459</v>
+        <v>0.7122437984176251</v>
       </c>
       <c r="G6">
         <v>7</v>
@@ -6909,16 +6909,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7094880366336481</v>
+        <v>0.8308591706974984</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H7">
         <v>19</v>
@@ -6950,16 +6950,16 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7122368097651275</v>
+        <v>0.7061199513441007</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H8">
         <v>19</v>
@@ -6991,16 +6991,16 @@
         <v>48</v>
       </c>
       <c r="D9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7184339548268541</v>
+        <v>0.7347594840138312</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H9">
         <v>19</v>
@@ -7032,16 +7032,16 @@
         <v>3</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7295822725733101</v>
+        <v>0.7380252988276823</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H10">
         <v>19</v>
@@ -7079,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7131437707929977</v>
+        <v>0.7025874077585128</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -7168,16 +7168,16 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8079908497926247</v>
+        <v>0.8354260236898727</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>19</v>
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.844790574125505</v>
+        <v>0.8287167326957395</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -7250,16 +7250,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8680888195430789</v>
+        <v>0.808009059481396</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H4">
         <v>19</v>
@@ -7291,16 +7291,16 @@
         <v>48</v>
       </c>
       <c r="D5">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8003089862387436</v>
+        <v>0.820806188695938</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>19</v>
@@ -7338,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.845312206736929</v>
+        <v>0.8474724183527186</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -7379,7 +7379,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9200873006548078</v>
+        <v>0.8308591706974984</v>
       </c>
       <c r="G7">
         <v>11</v>
@@ -7420,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8854070183774415</v>
+        <v>0.8550067786040363</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -7455,16 +7455,16 @@
         <v>48</v>
       </c>
       <c r="D9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8305083652805321</v>
+        <v>0.8625945901022909</v>
       </c>
       <c r="G9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H9">
         <v>19</v>
@@ -7496,16 +7496,16 @@
         <v>3</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.838092354242554</v>
+        <v>0.8122858735893437</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H10">
         <v>19</v>
@@ -7537,16 +7537,16 @@
         <v>1</v>
       </c>
       <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.8455454055045354</v>
+      </c>
+      <c r="G11">
         <v>10</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.8014834083577842</v>
-      </c>
-      <c r="G11">
-        <v>9</v>
       </c>
       <c r="H11">
         <v>19</v>
@@ -7632,16 +7632,16 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9102217575666295</v>
+        <v>0.9143185525701699</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>19</v>
@@ -7679,7 +7679,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9217262330019814</v>
+        <v>0.9050351528248489</v>
       </c>
       <c r="G3">
         <v>11</v>
@@ -7714,16 +7714,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9137221125228796</v>
+        <v>0.9091575240883168</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>19</v>
@@ -7755,16 +7755,16 @@
         <v>48</v>
       </c>
       <c r="D5">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.917712015708451</v>
+        <v>0.9002405533724845</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>19</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9098605188920244</v>
+        <v>0.9120492550458533</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -7837,16 +7837,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9200873006548078</v>
+        <v>0.9038437301203019</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H7">
         <v>19</v>
@@ -7884,7 +7884,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9323643795891093</v>
+        <v>0.9033164362921918</v>
       </c>
       <c r="G8">
         <v>12</v>
@@ -7919,16 +7919,16 @@
         <v>48</v>
       </c>
       <c r="D9">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9530162416627858</v>
+        <v>0.9105363897393067</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H9">
         <v>19</v>
@@ -7960,16 +7960,16 @@
         <v>3</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9399058060120276</v>
+        <v>0.9119228145819945</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H10">
         <v>19</v>
@@ -8007,7 +8007,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9090297134839287</v>
+        <v>0.9011864551821077</v>
       </c>
       <c r="G11">
         <v>13</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/19_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/19_225-80R17.xlsx
@@ -297,40 +297,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>225-80R17.5</t>
@@ -340,9 +343,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -971,46 +971,46 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3001179868780324</v>
+        <v>0.4345473230918531</v>
       </c>
       <c r="G2">
-        <v>0.06723849381462332</v>
+        <v>0.06021836699207936</v>
       </c>
       <c r="H2">
-        <v>0.1451176052042218</v>
+        <v>0.1854007352846309</v>
       </c>
       <c r="I2">
-        <v>0.00161573932193693</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.09115679552872076</v>
+        <v>0.09866448689100792</v>
       </c>
       <c r="K2">
-        <v>0.003259147606736948</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1225741660064237</v>
+        <v>0.1491645602964246</v>
       </c>
       <c r="M2">
-        <v>0.06253156338856117</v>
+        <v>0.05265247817273894</v>
       </c>
       <c r="N2">
-        <v>0.04181452594061573</v>
+        <v>0.01935204927126506</v>
       </c>
       <c r="O2">
-        <v>0.0274628660773158</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.02471023703735708</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.006453303837039973</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0003129148083380741</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -1019,22 +1019,22 @@
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0.004097612218366291</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.01585559490188003</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.004974936579437216</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.02837327238465</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0121430298902056</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0009331696557262881</v>
+        <v>0</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.01011548123820947</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -1052,19 +1052,19 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.002558305506955494</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0006068803829187162</v>
+        <v>0</v>
       </c>
       <c r="AI2">
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.00520746772417828</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.02076890406754908</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -1216,52 +1216,52 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05249954988237904</v>
+        <v>0.03650063817467206</v>
       </c>
       <c r="F3">
-        <v>0.06307086408036722</v>
+        <v>0.05163954847536911</v>
       </c>
       <c r="G3">
-        <v>0.3375936349139763</v>
+        <v>0.4447766291932748</v>
       </c>
       <c r="H3">
-        <v>0.01981366969266256</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0221495583467401</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1165548879576242</v>
+        <v>0.1282326593065868</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.06650373785594987</v>
+        <v>0.05655567973292379</v>
       </c>
       <c r="M3">
-        <v>0.1505308299660403</v>
+        <v>0.1768887420616508</v>
       </c>
       <c r="N3">
-        <v>0.0763184201291094</v>
+        <v>0.07061103669047977</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.05130857014019825</v>
+        <v>0.0347950663650428</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.005579695023063733</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.008482323202534028</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1270,13 +1270,13 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.001778065598912771</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.011124200827745</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.009105290573226956</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.007586701809470107</v>
+        <v>0</v>
       </c>
       <c r="AK3">
         <v>0</v>
@@ -1464,31 +1464,31 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2010930024418989</v>
+        <v>0.2296866892235827</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4289482076592687</v>
+        <v>0.52284555709563</v>
       </c>
       <c r="H4">
-        <v>0.02565941576570692</v>
+        <v>0.003973558783301957</v>
       </c>
       <c r="I4">
-        <v>0.08906775897459109</v>
+        <v>0.08555483357149647</v>
       </c>
       <c r="J4">
-        <v>0.06324067463993038</v>
+        <v>0.05232566596585851</v>
       </c>
       <c r="K4">
-        <v>0.01800180428833091</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.08314666031859</v>
+        <v>0.07793673866382898</v>
       </c>
       <c r="M4">
-        <v>0.04408267764763212</v>
+        <v>0.02767695669630128</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1497,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0006184111962295109</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.003942703833957112</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0.003362261730899892</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0118575905822233</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.01261271943247879</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.01436611148826264</v>
+        <v>0</v>
       </c>
       <c r="AK4">
         <v>0</v>
@@ -1850,100 +1850,100 @@
         <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.283538510743499</v>
+        <v>0.4256283465787107</v>
       </c>
       <c r="AZ5">
-        <v>0.1246821861476491</v>
+        <v>0.1589479334808111</v>
       </c>
       <c r="BA5">
-        <v>0.1374934101310341</v>
+        <v>0.1804548046291323</v>
       </c>
       <c r="BB5">
-        <v>0.007742865751145605</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.1015019846713416</v>
+        <v>0.1200341179867082</v>
       </c>
       <c r="BD5">
-        <v>0.007382812514755675</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.04434870578092902</v>
+        <v>0.02408792218259806</v>
       </c>
       <c r="BF5">
-        <v>0.07671415908523886</v>
+        <v>0.07842149989348271</v>
       </c>
       <c r="BG5">
-        <v>0.03740155387034518</v>
+        <v>0.012425375248557</v>
       </c>
       <c r="BH5">
-        <v>0.000735652048893229</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.02345235581952953</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>5.733985856774333E-05</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.02240528719017661</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.0004934048220885952</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.001340001585633336</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.003515747903472267</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.004586680949912463</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.0162763823021389</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.006571512196133822</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.01441180755070038</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.002926960801975866</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.0001733264127817021</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.002794981909996249</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.00447899855650515</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.01822323279058464</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.01088688838635765</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.001561124984828738</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.000105582487993323</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.0009177918636467605</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.002968840631262661</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.01555648418276224</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.0247534260681202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:82">
@@ -1960,31 +1960,31 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2579571900845962</v>
+        <v>0.3115713401837382</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.329890429983233</v>
+        <v>0.4080460311845889</v>
       </c>
       <c r="H6">
-        <v>0.00882652237954289</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0810313707092961</v>
+        <v>0.07428376939787294</v>
       </c>
       <c r="J6">
-        <v>0.03453828526095704</v>
+        <v>0.01192864597196894</v>
       </c>
       <c r="K6">
-        <v>0.007217799446265523</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1280108204888279</v>
+        <v>0.1372911899903133</v>
       </c>
       <c r="M6">
-        <v>0.06457683669313478</v>
+        <v>0.05221544483736286</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1993,10 +1993,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.009738728035537414</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.02228484150690989</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -2008,16 +2008,16 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.001361010321074856</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.003847131152249954</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.009853980624321527</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -2032,10 +2032,10 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.002705094384391414</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.009038636818892269</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.02912132211076916</v>
+        <v>0.004663578434154959</v>
       </c>
       <c r="AK6">
         <v>0</v>
@@ -2205,34 +2205,34 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1180463502039906</v>
+        <v>0.1358369710203912</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1691422448328634</v>
+        <v>0.2143461748965919</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07097428239111447</v>
+        <v>0.06351040553723881</v>
       </c>
       <c r="I7">
-        <v>0.1887293927699224</v>
+        <v>0.2444419663865585</v>
       </c>
       <c r="J7">
-        <v>0.09535260635686701</v>
+        <v>0.1009678729186951</v>
       </c>
       <c r="K7">
-        <v>0.002192314850620392</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.18642197929212</v>
+        <v>0.2408966092405243</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.00703977997151707</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.02469336326982186</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -2253,19 +2253,19 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0.02654214627576839</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>0.01470926990569637</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>0.007973767862382901</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>0.01942714624281899</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>0.00926251899677074</v>
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -2277,28 +2277,28 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.01245743656023176</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.01479059412180902</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.006303526687432871</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>0.00563927600898405</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.001883948712351013</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>0.0006880426478906441</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>0.002495065630804099</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>0.01523494640822189</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -2456,46 +2456,46 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2518802420561497</v>
+        <v>0.3127443310774051</v>
       </c>
       <c r="F8">
-        <v>0.007891994605963184</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.2403195025399724</v>
+        <v>0.2965938725902613</v>
       </c>
       <c r="H8">
-        <v>0.05577081749805095</v>
+        <v>0.03877767731523046</v>
       </c>
       <c r="I8">
-        <v>0.1257393063269947</v>
+        <v>0.136524294013822</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.005998261094593703</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.01851982722237606</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.1488868272599357</v>
+        <v>0.1688615917606162</v>
       </c>
       <c r="N8">
-        <v>0.0004855505630821153</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.04782410712507343</v>
+        <v>0.02767605048517048</v>
       </c>
       <c r="P8">
-        <v>0.04148637630512006</v>
+        <v>0.01882218275749465</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0.003361533389797067</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -2504,19 +2504,19 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.002335471985560957</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0.002469045724971699</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.01063786135737887</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -2528,13 +2528,13 @@
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.006295456499400522</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>0.01207334705845303</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>0.008332006773170083</v>
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -2549,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="AJ8">
-        <v>0.00969246461395574</v>
+        <v>0</v>
       </c>
       <c r="AK8">
         <v>0</v>
@@ -2842,100 +2842,100 @@
         <v>0</v>
       </c>
       <c r="AY9">
-        <v>0.3391336842015009</v>
+        <v>0.536561938474857</v>
       </c>
       <c r="AZ9">
-        <v>0.1200950031697248</v>
+        <v>0.1563774897986715</v>
       </c>
       <c r="BA9">
-        <v>0.09220837138550116</v>
+        <v>0.1079747890502004</v>
       </c>
       <c r="BB9">
-        <v>0.03541575662538857</v>
+        <v>0.009400104297053612</v>
       </c>
       <c r="BC9">
-        <v>0.03689039414607344</v>
+        <v>0.01195962597677677</v>
       </c>
       <c r="BD9">
-        <v>0.001513361200913375</v>
+        <v>0</v>
       </c>
       <c r="BE9">
-        <v>0.04244768444288059</v>
+        <v>0.02160538962762087</v>
       </c>
       <c r="BF9">
-        <v>0.06705522884184834</v>
+        <v>0.06431659322201758</v>
       </c>
       <c r="BG9">
-        <v>0.0484907243213144</v>
+        <v>0.03209426663184858</v>
       </c>
       <c r="BH9">
-        <v>0.01494329955030634</v>
+        <v>0</v>
       </c>
       <c r="BI9">
-        <v>0.06440108221683891</v>
+        <v>0.0597098029209539</v>
       </c>
       <c r="BJ9">
-        <v>0.002347844958649803</v>
+        <v>0</v>
       </c>
       <c r="BK9">
-        <v>0.005911425418584695</v>
+        <v>0</v>
       </c>
       <c r="BL9">
-        <v>0.004302030705287362</v>
+        <v>0</v>
       </c>
       <c r="BM9">
-        <v>0.001239496332242403</v>
+        <v>0</v>
       </c>
       <c r="BN9">
-        <v>0.004260129373042599</v>
+        <v>0</v>
       </c>
       <c r="BO9">
-        <v>0.01058333476795795</v>
+        <v>0</v>
       </c>
       <c r="BP9">
-        <v>0.019297538081251</v>
+        <v>0</v>
       </c>
       <c r="BQ9">
-        <v>0.007170248545169389</v>
+        <v>0</v>
       </c>
       <c r="BR9">
-        <v>0.02309567485744566</v>
+        <v>0</v>
       </c>
       <c r="BS9">
-        <v>0.01768211169960586</v>
+        <v>0</v>
       </c>
       <c r="BT9">
-        <v>0.0001333398505007551</v>
+        <v>0</v>
       </c>
       <c r="BU9">
-        <v>0.0005127016780481204</v>
+        <v>0</v>
       </c>
       <c r="BV9">
-        <v>0.001282118139768732</v>
+        <v>0</v>
       </c>
       <c r="BW9">
-        <v>0.01686269119664468</v>
+        <v>0</v>
       </c>
       <c r="BX9">
-        <v>0.007004737865289768</v>
+        <v>0</v>
       </c>
       <c r="BY9">
-        <v>0.003576502253568745</v>
+        <v>0</v>
       </c>
       <c r="BZ9">
-        <v>0.001041438074609414</v>
+        <v>0</v>
       </c>
       <c r="CA9">
-        <v>0.0009579221528547855</v>
+        <v>0</v>
       </c>
       <c r="CB9">
-        <v>0.0003940250544461599</v>
+        <v>0</v>
       </c>
       <c r="CC9">
-        <v>0.0036213231390038</v>
+        <v>0</v>
       </c>
       <c r="CD9">
-        <v>0.0061287757537375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:82">
@@ -2955,40 +2955,40 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.2307960221843252</v>
+        <v>0.3407271220570189</v>
       </c>
       <c r="G10">
-        <v>0.02503623533552799</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.2483130539003738</v>
+        <v>0.3703546158421204</v>
       </c>
       <c r="I10">
-        <v>0.0220601391354674</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09739476927194693</v>
+        <v>0.1150984393181939</v>
       </c>
       <c r="K10">
-        <v>0.01015029225268685</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.03980768526461632</v>
+        <v>0.01769832032621992</v>
       </c>
       <c r="M10">
-        <v>0.06446710148273777</v>
+        <v>0.05940611149709946</v>
       </c>
       <c r="N10">
-        <v>0.04321295311475539</v>
+        <v>0.02345783219455603</v>
       </c>
       <c r="O10">
-        <v>0.03104762164690604</v>
+        <v>0.002881955624829068</v>
       </c>
       <c r="P10">
-        <v>0.07095273048702372</v>
+        <v>0.07037560313996222</v>
       </c>
       <c r="Q10">
-        <v>0.009892642909853122</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.001874457712035453</v>
+        <v>0</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0.004503892242884518</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>0.01241321764085418</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>0.003302632781762975</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.01364322542202121</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.02517515466408067</v>
+        <v>0</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -3024,16 +3024,16 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.000340956367294107</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.01688049641753367</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>0.01990759147473131</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.005447838586519087</v>
+        <v>0</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="AK10">
-        <v>0.003379289704062226</v>
+        <v>0</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -3197,46 +3197,46 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.253987693813843</v>
+        <v>0.341458919698604</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.3084691632083169</v>
+        <v>0.423478003118957</v>
       </c>
       <c r="G11">
-        <v>0.02815694327506496</v>
+        <v>0.001482201500917623</v>
       </c>
       <c r="H11">
-        <v>0.1119736074612879</v>
+        <v>0.1276639298630901</v>
       </c>
       <c r="I11">
-        <v>0.02754579671491507</v>
+        <v>0.0005621514131334537</v>
       </c>
       <c r="J11">
-        <v>0.01373372109357793</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.04848804663092336</v>
+        <v>0.03208964437471622</v>
       </c>
       <c r="L11">
-        <v>0.05319043330660624</v>
+        <v>0.03916884853925569</v>
       </c>
       <c r="M11">
-        <v>0.0002592281865391881</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.04351430192787892</v>
+        <v>0.02460192449042253</v>
       </c>
       <c r="O11">
-        <v>0.01186751956315418</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.002965262693925419</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.001197945275063391</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -3248,16 +3248,16 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0.007669617492140279</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>0.001009069905989256</v>
+        <v>0</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0.01527968955376263</v>
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -3269,13 +3269,13 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.0122593332585248</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.03347905949585275</v>
+        <v>0.009494377000903003</v>
       </c>
       <c r="AD11">
-        <v>0.01651713643964464</v>
+        <v>0</v>
       </c>
       <c r="AE11">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.008436430702989299</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -3712,97 +3712,97 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3001179868780324</v>
+        <v>0.4345473230918531</v>
       </c>
       <c r="G2">
-        <v>0.3673564806926558</v>
+        <v>0.4947656900839325</v>
       </c>
       <c r="H2">
-        <v>0.5124740858968775</v>
+        <v>0.6801664253685634</v>
       </c>
       <c r="I2">
-        <v>0.5140898252188144</v>
+        <v>0.6801664253685634</v>
       </c>
       <c r="J2">
-        <v>0.6052466207475352</v>
+        <v>0.7788309122595714</v>
       </c>
       <c r="K2">
-        <v>0.6085057683542722</v>
+        <v>0.7788309122595714</v>
       </c>
       <c r="L2">
-        <v>0.7310799343606958</v>
+        <v>0.927995472555996</v>
       </c>
       <c r="M2">
-        <v>0.793611497749257</v>
+        <v>0.980647950728735</v>
       </c>
       <c r="N2">
-        <v>0.8354260236898727</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>0.8628888897671885</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.8875991268045456</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.8875991268045456</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>0.8940524306415856</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>0.8943653454499236</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0.8943653454499236</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>0.8943653454499236</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>0.8984629576682899</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>0.9143185525701699</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <v>0.9192934891496072</v>
+        <v>1</v>
       </c>
       <c r="Y2">
-        <v>0.9476667615342572</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>0.9598097914244628</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>0.9607429610801891</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>0.9607429610801891</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>0.9607429610801891</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>0.9708584423183986</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0.9708584423183986</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0.9708584423183986</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>0.973416747825354</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0.9740236282082727</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0.9740236282082727</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.9792310959324509</v>
+        <v>1</v>
       </c>
       <c r="AK2">
         <v>1</v>
@@ -3957,97 +3957,97 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05249954988237904</v>
+        <v>0.03650063817467206</v>
       </c>
       <c r="F3">
-        <v>0.1155704139627463</v>
+        <v>0.08814018665004117</v>
       </c>
       <c r="G3">
-        <v>0.4531640488767225</v>
+        <v>0.532916815843316</v>
       </c>
       <c r="H3">
-        <v>0.4729777185693851</v>
+        <v>0.532916815843316</v>
       </c>
       <c r="I3">
-        <v>0.4951272769161252</v>
+        <v>0.532916815843316</v>
       </c>
       <c r="J3">
-        <v>0.6116821648737494</v>
+        <v>0.6611494751499027</v>
       </c>
       <c r="K3">
-        <v>0.6116821648737494</v>
+        <v>0.6611494751499027</v>
       </c>
       <c r="L3">
-        <v>0.6781859027296993</v>
+        <v>0.7177051548828265</v>
       </c>
       <c r="M3">
-        <v>0.8287167326957395</v>
+        <v>0.8945938969444773</v>
       </c>
       <c r="N3">
-        <v>0.9050351528248489</v>
+        <v>0.9652049336349571</v>
       </c>
       <c r="O3">
-        <v>0.9050351528248489</v>
+        <v>0.9652049336349571</v>
       </c>
       <c r="P3">
-        <v>0.9563437229650472</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q3">
-        <v>0.9563437229650472</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R3">
-        <v>0.961923417988111</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S3">
-        <v>0.961923417988111</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T3">
-        <v>0.970405741190645</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U3">
-        <v>0.970405741190645</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V3">
-        <v>0.970405741190645</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W3">
-        <v>0.9721838067895578</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X3">
-        <v>0.9833080076173029</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Y3">
-        <v>0.9924132981905298</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Z3">
-        <v>0.9924132981905298</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA3">
-        <v>0.9924132981905298</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB3">
-        <v>0.9924132981905298</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC3">
-        <v>0.9924132981905298</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD3">
-        <v>0.9924132981905298</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE3">
-        <v>0.9924132981905298</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF3">
-        <v>0.9924132981905298</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG3">
-        <v>0.9924132981905298</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.9924132981905298</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI3">
-        <v>0.9924132981905298</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ3">
         <v>0.9999999999999999</v>
@@ -4205,238 +4205,238 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2010930024418989</v>
+        <v>0.2296866892235827</v>
       </c>
       <c r="F4">
-        <v>0.2010930024418989</v>
+        <v>0.2296866892235827</v>
       </c>
       <c r="G4">
-        <v>0.6300412101011675</v>
+        <v>0.7525322463192126</v>
       </c>
       <c r="H4">
-        <v>0.6557006258668745</v>
+        <v>0.7565058051025145</v>
       </c>
       <c r="I4">
-        <v>0.7447683848414656</v>
+        <v>0.842060638674011</v>
       </c>
       <c r="J4">
-        <v>0.808009059481396</v>
+        <v>0.8943863046398696</v>
       </c>
       <c r="K4">
-        <v>0.8260108637697269</v>
+        <v>0.8943863046398696</v>
       </c>
       <c r="L4">
-        <v>0.9091575240883168</v>
+        <v>0.9723230433036986</v>
       </c>
       <c r="M4">
-        <v>0.9532402017359489</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N4">
-        <v>0.9532402017359489</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O4">
-        <v>0.9532402017359489</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P4">
-        <v>0.9538586129321784</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q4">
-        <v>0.9578013167661356</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R4">
-        <v>0.9578013167661356</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S4">
-        <v>0.9578013167661356</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T4">
-        <v>0.9578013167661356</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U4">
-        <v>0.9578013167661356</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V4">
-        <v>0.9611635784970355</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W4">
-        <v>0.9611635784970355</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X4">
-        <v>0.9611635784970355</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Y4">
-        <v>0.9611635784970355</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Z4">
-        <v>0.9611635784970355</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA4">
-        <v>0.9611635784970355</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB4">
-        <v>0.9611635784970355</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC4">
-        <v>0.9730211690792588</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD4">
-        <v>0.9856338885117376</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE4">
-        <v>0.9856338885117376</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF4">
-        <v>0.9856338885117376</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG4">
-        <v>0.9856338885117376</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH4">
-        <v>0.9856338885117376</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI4">
-        <v>0.9856338885117376</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AS4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AU4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AV4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AW4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AX4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AY4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AZ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BA4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BB4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BC4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BD4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BE4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BF4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BG4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BH4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BI4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BJ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BK4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BL4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BM4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BW4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BX4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BY4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BZ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CA4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CB4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CC4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CD4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:82">
@@ -4591,97 +4591,97 @@
         <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.283538510743499</v>
+        <v>0.4256283465787107</v>
       </c>
       <c r="AZ5">
-        <v>0.4082206968911481</v>
+        <v>0.5845762800595218</v>
       </c>
       <c r="BA5">
-        <v>0.5457141070221821</v>
+        <v>0.7650310846886541</v>
       </c>
       <c r="BB5">
-        <v>0.5534569727733277</v>
+        <v>0.7650310846886541</v>
       </c>
       <c r="BC5">
-        <v>0.6549589574446694</v>
+        <v>0.8850652026753624</v>
       </c>
       <c r="BD5">
-        <v>0.6623417699594251</v>
+        <v>0.8850652026753624</v>
       </c>
       <c r="BE5">
-        <v>0.706690475740354</v>
+        <v>0.9091531248579604</v>
       </c>
       <c r="BF5">
-        <v>0.7834046348255929</v>
+        <v>0.9875746247514431</v>
       </c>
       <c r="BG5">
-        <v>0.820806188695938</v>
+        <v>1</v>
       </c>
       <c r="BH5">
-        <v>0.8215418407448313</v>
+        <v>1</v>
       </c>
       <c r="BI5">
-        <v>0.8449941965643608</v>
+        <v>1</v>
       </c>
       <c r="BJ5">
-        <v>0.8450515364229285</v>
+        <v>1</v>
       </c>
       <c r="BK5">
-        <v>0.8674568236131052</v>
+        <v>1</v>
       </c>
       <c r="BL5">
-        <v>0.8679502284351938</v>
+        <v>1</v>
       </c>
       <c r="BM5">
-        <v>0.8692902300208271</v>
+        <v>1</v>
       </c>
       <c r="BN5">
-        <v>0.8728059779242994</v>
+        <v>1</v>
       </c>
       <c r="BO5">
-        <v>0.8773926588742118</v>
+        <v>1</v>
       </c>
       <c r="BP5">
-        <v>0.8936690411763507</v>
+        <v>1</v>
       </c>
       <c r="BQ5">
-        <v>0.9002405533724845</v>
+        <v>1</v>
       </c>
       <c r="BR5">
-        <v>0.9146523609231849</v>
+        <v>1</v>
       </c>
       <c r="BS5">
-        <v>0.9175793217251608</v>
+        <v>1</v>
       </c>
       <c r="BT5">
-        <v>0.9177526481379424</v>
+        <v>1</v>
       </c>
       <c r="BU5">
-        <v>0.9205476300479387</v>
+        <v>1</v>
       </c>
       <c r="BV5">
-        <v>0.9250266286044438</v>
+        <v>1</v>
       </c>
       <c r="BW5">
-        <v>0.9432498613950285</v>
+        <v>1</v>
       </c>
       <c r="BX5">
-        <v>0.9541367497813862</v>
+        <v>1</v>
       </c>
       <c r="BY5">
-        <v>0.9556978747662149</v>
+        <v>1</v>
       </c>
       <c r="BZ5">
-        <v>0.9558034572542082</v>
+        <v>1</v>
       </c>
       <c r="CA5">
-        <v>0.9567212491178549</v>
+        <v>1</v>
       </c>
       <c r="CB5">
-        <v>0.9596900897491176</v>
+        <v>1</v>
       </c>
       <c r="CC5">
-        <v>0.9752465739318799</v>
+        <v>1</v>
       </c>
       <c r="CD5">
         <v>1</v>
@@ -4701,238 +4701,238 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2579571900845962</v>
+        <v>0.3115713401837382</v>
       </c>
       <c r="F6">
-        <v>0.2579571900845962</v>
+        <v>0.3115713401837382</v>
       </c>
       <c r="G6">
-        <v>0.5878476200678291</v>
+        <v>0.719617371368327</v>
       </c>
       <c r="H6">
-        <v>0.5966741424473719</v>
+        <v>0.719617371368327</v>
       </c>
       <c r="I6">
-        <v>0.677705513156668</v>
+        <v>0.7939011407662</v>
       </c>
       <c r="J6">
-        <v>0.7122437984176251</v>
+        <v>0.805829786738169</v>
       </c>
       <c r="K6">
-        <v>0.7194615978638906</v>
+        <v>0.805829786738169</v>
       </c>
       <c r="L6">
-        <v>0.8474724183527186</v>
+        <v>0.9431209767284823</v>
       </c>
       <c r="M6">
-        <v>0.9120492550458533</v>
+        <v>0.9953364215658451</v>
       </c>
       <c r="N6">
-        <v>0.9120492550458533</v>
+        <v>0.9953364215658451</v>
       </c>
       <c r="O6">
-        <v>0.9120492550458533</v>
+        <v>0.9953364215658451</v>
       </c>
       <c r="P6">
-        <v>0.9217879830813908</v>
+        <v>0.9953364215658451</v>
       </c>
       <c r="Q6">
-        <v>0.9440728245883007</v>
+        <v>0.9953364215658451</v>
       </c>
       <c r="R6">
-        <v>0.9440728245883007</v>
+        <v>0.9953364215658451</v>
       </c>
       <c r="S6">
-        <v>0.9440728245883007</v>
+        <v>0.9953364215658451</v>
       </c>
       <c r="T6">
-        <v>0.9440728245883007</v>
+        <v>0.9953364215658451</v>
       </c>
       <c r="U6">
-        <v>0.9454338349093755</v>
+        <v>0.9953364215658451</v>
       </c>
       <c r="V6">
-        <v>0.9492809660616255</v>
+        <v>0.9953364215658451</v>
       </c>
       <c r="W6">
-        <v>0.9492809660616255</v>
+        <v>0.9953364215658451</v>
       </c>
       <c r="X6">
-        <v>0.959134946685947</v>
+        <v>0.9953364215658451</v>
       </c>
       <c r="Y6">
-        <v>0.959134946685947</v>
+        <v>0.9953364215658451</v>
       </c>
       <c r="Z6">
-        <v>0.959134946685947</v>
+        <v>0.9953364215658451</v>
       </c>
       <c r="AA6">
-        <v>0.959134946685947</v>
+        <v>0.9953364215658451</v>
       </c>
       <c r="AB6">
-        <v>0.959134946685947</v>
+        <v>0.9953364215658451</v>
       </c>
       <c r="AC6">
-        <v>0.9618400410703384</v>
+        <v>0.9953364215658451</v>
       </c>
       <c r="AD6">
-        <v>0.9708786778892307</v>
+        <v>0.9953364215658451</v>
       </c>
       <c r="AE6">
-        <v>0.9708786778892307</v>
+        <v>0.9953364215658451</v>
       </c>
       <c r="AF6">
-        <v>0.9708786778892307</v>
+        <v>0.9953364215658451</v>
       </c>
       <c r="AG6">
-        <v>0.9708786778892307</v>
+        <v>0.9953364215658451</v>
       </c>
       <c r="AH6">
-        <v>0.9708786778892307</v>
+        <v>0.9953364215658451</v>
       </c>
       <c r="AI6">
-        <v>0.9708786778892307</v>
+        <v>0.9953364215658451</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AL6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AO6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AR6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AX6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AY6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AZ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BA6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BB6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BC6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BD6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BE6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BF6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BG6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BH6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BI6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BJ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BK6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BL6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BM6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BN6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BO6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BP6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BQ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BR6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BX6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BY6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BZ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CA6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CB6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CC6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CD6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:82">
@@ -4946,241 +4946,241 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1180463502039906</v>
+        <v>0.1358369710203912</v>
       </c>
       <c r="E7">
-        <v>0.1180463502039906</v>
+        <v>0.1358369710203912</v>
       </c>
       <c r="F7">
-        <v>0.287188595036854</v>
+        <v>0.3501831459169831</v>
       </c>
       <c r="G7">
-        <v>0.287188595036854</v>
+        <v>0.3501831459169831</v>
       </c>
       <c r="H7">
-        <v>0.3581628774279684</v>
+        <v>0.4136935514542219</v>
       </c>
       <c r="I7">
-        <v>0.5468922701978909</v>
+        <v>0.6581355178407804</v>
       </c>
       <c r="J7">
-        <v>0.6422448765547579</v>
+        <v>0.7591033907594755</v>
       </c>
       <c r="K7">
-        <v>0.6444371914053784</v>
+        <v>0.7591033907594755</v>
       </c>
       <c r="L7">
-        <v>0.6444371914053784</v>
+        <v>0.7591033907594755</v>
       </c>
       <c r="M7">
-        <v>0.8308591706974984</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="N7">
-        <v>0.8308591706974984</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="O7">
-        <v>0.8308591706974984</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="P7">
-        <v>0.8378989506690154</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Q7">
-        <v>0.8625923139388373</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="R7">
-        <v>0.8625923139388373</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="S7">
-        <v>0.8625923139388373</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="T7">
-        <v>0.8891344602146056</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="U7">
-        <v>0.9038437301203019</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="V7">
-        <v>0.9118174979826849</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="W7">
-        <v>0.9312446442255038</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="X7">
-        <v>0.9405071632222746</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Y7">
-        <v>0.9405071632222746</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Z7">
-        <v>0.9405071632222746</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AA7">
-        <v>0.9405071632222746</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AB7">
-        <v>0.9529645997825064</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AC7">
-        <v>0.9677551939043154</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AD7">
-        <v>0.9740587205917483</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE7">
-        <v>0.9796979966007323</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF7">
-        <v>0.9815819453130833</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG7">
-        <v>0.982269987960974</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH7">
-        <v>0.9847650535917781</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AM7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AN7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AO7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AR7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AS7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AU7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AV7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AW7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AX7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AY7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AZ7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BA7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BB7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BC7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BD7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BE7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BF7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BG7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BH7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BI7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BJ7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BK7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BL7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BM7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BN7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BO7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BP7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BQ7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BR7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BS7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BT7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BU7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BV7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BW7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BX7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BY7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BZ7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CA7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CB7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CC7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CD7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:82">
@@ -5197,238 +5197,238 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2518802420561497</v>
+        <v>0.3127443310774051</v>
       </c>
       <c r="F8">
-        <v>0.2597722366621129</v>
+        <v>0.3127443310774051</v>
       </c>
       <c r="G8">
-        <v>0.5000917392020853</v>
+        <v>0.6093382036676664</v>
       </c>
       <c r="H8">
-        <v>0.5558625567001362</v>
+        <v>0.6481158809828969</v>
       </c>
       <c r="I8">
-        <v>0.6816018630271309</v>
+        <v>0.7846401749967188</v>
       </c>
       <c r="J8">
-        <v>0.6816018630271309</v>
+        <v>0.7846401749967188</v>
       </c>
       <c r="K8">
-        <v>0.6876001241217246</v>
+        <v>0.7846401749967188</v>
       </c>
       <c r="L8">
-        <v>0.7061199513441007</v>
+        <v>0.7846401749967188</v>
       </c>
       <c r="M8">
-        <v>0.8550067786040363</v>
+        <v>0.953501766757335</v>
       </c>
       <c r="N8">
-        <v>0.8554923291671184</v>
+        <v>0.953501766757335</v>
       </c>
       <c r="O8">
-        <v>0.9033164362921918</v>
+        <v>0.9811778172425055</v>
       </c>
       <c r="P8">
-        <v>0.9448028125973119</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>0.9448028125973119</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>0.948164345987109</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>0.948164345987109</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>0.948164345987109</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>0.9504998179726699</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>0.9504998179726699</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>0.9529688636976417</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>0.9529688636976417</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>0.9636067250550205</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>0.9636067250550205</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0.9636067250550205</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>0.9636067250550205</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0.9699021815544211</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0.9819755286128741</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>0.9903075353860441</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>0.9903075353860441</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>0.9903075353860441</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <v>0.9903075353860441</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>0.9903075353860441</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AL8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AM8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AN8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AO8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AP8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AS8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AT8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AU8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AV8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AW8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AX8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AY8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AZ8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BA8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BB8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BC8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BD8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BE8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BF8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BG8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BH8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BI8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BJ8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BK8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BL8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BM8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BN8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BO8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BP8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BQ8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BR8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BS8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BT8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BU8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BV8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BW8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BX8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BY8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BZ8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CA8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CB8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CC8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CD8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:82">
@@ -5583,97 +5583,97 @@
         <v>0</v>
       </c>
       <c r="AY9">
-        <v>0.3391336842015009</v>
+        <v>0.536561938474857</v>
       </c>
       <c r="AZ9">
-        <v>0.4592286873712257</v>
+        <v>0.6929394282735285</v>
       </c>
       <c r="BA9">
-        <v>0.5514370587567269</v>
+        <v>0.8009142173237289</v>
       </c>
       <c r="BB9">
-        <v>0.5868528153821154</v>
+        <v>0.8103143216207825</v>
       </c>
       <c r="BC9">
-        <v>0.6237432095281888</v>
+        <v>0.8222739475975593</v>
       </c>
       <c r="BD9">
-        <v>0.6252565707291022</v>
+        <v>0.8222739475975593</v>
       </c>
       <c r="BE9">
-        <v>0.6677042551719828</v>
+        <v>0.8438793372251802</v>
       </c>
       <c r="BF9">
-        <v>0.7347594840138312</v>
+        <v>0.9081959304471977</v>
       </c>
       <c r="BG9">
-        <v>0.7832502083351456</v>
+        <v>0.9402901970790463</v>
       </c>
       <c r="BH9">
-        <v>0.798193507885452</v>
+        <v>0.9402901970790463</v>
       </c>
       <c r="BI9">
-        <v>0.8625945901022909</v>
+        <v>1</v>
       </c>
       <c r="BJ9">
-        <v>0.8649424350609407</v>
+        <v>1</v>
       </c>
       <c r="BK9">
-        <v>0.8708538604795254</v>
+        <v>1</v>
       </c>
       <c r="BL9">
-        <v>0.8751558911848127</v>
+        <v>1</v>
       </c>
       <c r="BM9">
-        <v>0.8763953875170551</v>
+        <v>1</v>
       </c>
       <c r="BN9">
-        <v>0.8806555168900978</v>
+        <v>1</v>
       </c>
       <c r="BO9">
-        <v>0.8912388516580557</v>
+        <v>1</v>
       </c>
       <c r="BP9">
-        <v>0.9105363897393067</v>
+        <v>1</v>
       </c>
       <c r="BQ9">
-        <v>0.9177066382844761</v>
+        <v>1</v>
       </c>
       <c r="BR9">
-        <v>0.9408023131419218</v>
+        <v>1</v>
       </c>
       <c r="BS9">
-        <v>0.9584844248415276</v>
+        <v>1</v>
       </c>
       <c r="BT9">
-        <v>0.9586177646920284</v>
+        <v>1</v>
       </c>
       <c r="BU9">
-        <v>0.9591304663700765</v>
+        <v>1</v>
       </c>
       <c r="BV9">
-        <v>0.9604125845098452</v>
+        <v>1</v>
       </c>
       <c r="BW9">
-        <v>0.9772752757064899</v>
+        <v>1</v>
       </c>
       <c r="BX9">
-        <v>0.9842800135717796</v>
+        <v>1</v>
       </c>
       <c r="BY9">
-        <v>0.9878565158253484</v>
+        <v>1</v>
       </c>
       <c r="BZ9">
-        <v>0.9888979538999578</v>
+        <v>1</v>
       </c>
       <c r="CA9">
-        <v>0.9898558760528127</v>
+        <v>1</v>
       </c>
       <c r="CB9">
-        <v>0.9902499011072589</v>
+        <v>1</v>
       </c>
       <c r="CC9">
-        <v>0.9938712242462626</v>
+        <v>1</v>
       </c>
       <c r="CD9">
         <v>1</v>
@@ -5696,235 +5696,235 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.2307960221843252</v>
+        <v>0.3407271220570189</v>
       </c>
       <c r="G10">
-        <v>0.2558322575198532</v>
+        <v>0.3407271220570189</v>
       </c>
       <c r="H10">
-        <v>0.504145311420227</v>
+        <v>0.7110817378991393</v>
       </c>
       <c r="I10">
-        <v>0.5262054505556945</v>
+        <v>0.7110817378991393</v>
       </c>
       <c r="J10">
-        <v>0.6236002198276414</v>
+        <v>0.8261801772173332</v>
       </c>
       <c r="K10">
-        <v>0.6337505120803282</v>
+        <v>0.8261801772173332</v>
       </c>
       <c r="L10">
-        <v>0.6735581973449445</v>
+        <v>0.843878497543553</v>
       </c>
       <c r="M10">
-        <v>0.7380252988276823</v>
+        <v>0.9032846090406526</v>
       </c>
       <c r="N10">
-        <v>0.7812382519424377</v>
+        <v>0.9267424412352085</v>
       </c>
       <c r="O10">
-        <v>0.8122858735893437</v>
+        <v>0.9296243968600376</v>
       </c>
       <c r="P10">
-        <v>0.8832386040763673</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Q10">
-        <v>0.8931312469862205</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="R10">
-        <v>0.8931312469862205</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="S10">
-        <v>0.8931312469862205</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="T10">
-        <v>0.8950057046982559</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="U10">
-        <v>0.8950057046982559</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="V10">
-        <v>0.8995095969411404</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="W10">
-        <v>0.9119228145819945</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="X10">
-        <v>0.9152254473637575</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Y10">
-        <v>0.9288686727857788</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Z10">
-        <v>0.9540438274498595</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AA10">
-        <v>0.9540438274498595</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AB10">
-        <v>0.9540438274498595</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AC10">
-        <v>0.9543847838171536</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AD10">
-        <v>0.9712652802346873</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE10">
-        <v>0.9911728717094186</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF10">
-        <v>0.9966207102959377</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG10">
-        <v>0.9966207102959377</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH10">
-        <v>0.9966207102959377</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI10">
-        <v>0.9966207102959377</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ10">
-        <v>0.9966207102959377</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AL10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AM10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AN10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AO10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AP10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AQ10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AR10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AS10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AT10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AU10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AV10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AW10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AX10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AY10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AZ10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BA10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BB10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BC10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BD10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BE10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BF10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BG10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BH10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BI10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BJ10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BK10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BL10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BM10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BN10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BO10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BP10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BQ10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BR10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BS10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BT10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BU10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BV10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BW10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BX10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BY10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BZ10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CA10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CB10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CC10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CD10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:82">
@@ -5938,241 +5938,241 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.253987693813843</v>
+        <v>0.341458919698604</v>
       </c>
       <c r="E11">
-        <v>0.253987693813843</v>
+        <v>0.341458919698604</v>
       </c>
       <c r="F11">
-        <v>0.5624568570221599</v>
+        <v>0.7649369228175611</v>
       </c>
       <c r="G11">
-        <v>0.5906138002972249</v>
+        <v>0.7664191243184787</v>
       </c>
       <c r="H11">
-        <v>0.7025874077585128</v>
+        <v>0.8940830541815687</v>
       </c>
       <c r="I11">
-        <v>0.7301332044734279</v>
+        <v>0.8946452055947022</v>
       </c>
       <c r="J11">
-        <v>0.7438669255670058</v>
+        <v>0.8946452055947022</v>
       </c>
       <c r="K11">
-        <v>0.7923549721979292</v>
+        <v>0.9267348499694184</v>
       </c>
       <c r="L11">
-        <v>0.8455454055045354</v>
+        <v>0.9659036985086741</v>
       </c>
       <c r="M11">
-        <v>0.8458046336910746</v>
+        <v>0.9659036985086741</v>
       </c>
       <c r="N11">
-        <v>0.8893189356189536</v>
+        <v>0.9905056229990966</v>
       </c>
       <c r="O11">
-        <v>0.9011864551821077</v>
+        <v>0.9905056229990966</v>
       </c>
       <c r="P11">
-        <v>0.9041517178760331</v>
+        <v>0.9905056229990966</v>
       </c>
       <c r="Q11">
-        <v>0.9053496631510964</v>
+        <v>0.9905056229990966</v>
       </c>
       <c r="R11">
-        <v>0.9053496631510964</v>
+        <v>0.9905056229990966</v>
       </c>
       <c r="S11">
-        <v>0.9053496631510964</v>
+        <v>0.9905056229990966</v>
       </c>
       <c r="T11">
-        <v>0.9053496631510964</v>
+        <v>0.9905056229990966</v>
       </c>
       <c r="U11">
-        <v>0.9130192806432367</v>
+        <v>0.9905056229990966</v>
       </c>
       <c r="V11">
-        <v>0.9140283505492259</v>
+        <v>0.9905056229990966</v>
       </c>
       <c r="W11">
-        <v>0.9140283505492259</v>
+        <v>0.9905056229990966</v>
       </c>
       <c r="X11">
-        <v>0.9293080401029885</v>
+        <v>0.9905056229990966</v>
       </c>
       <c r="Y11">
-        <v>0.9293080401029885</v>
+        <v>0.9905056229990966</v>
       </c>
       <c r="Z11">
-        <v>0.9293080401029885</v>
+        <v>0.9905056229990966</v>
       </c>
       <c r="AA11">
-        <v>0.9293080401029885</v>
+        <v>0.9905056229990966</v>
       </c>
       <c r="AB11">
-        <v>0.9415673733615133</v>
+        <v>0.9905056229990966</v>
       </c>
       <c r="AC11">
-        <v>0.975046432857366</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AD11">
-        <v>0.9915635692970106</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AE11">
-        <v>0.9915635692970106</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AF11">
-        <v>0.9915635692970106</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AG11">
-        <v>0.9915635692970106</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AH11">
-        <v>0.9915635692970106</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AI11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AJ11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AK11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AL11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AM11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AN11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AO11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AP11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AQ11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AR11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AS11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AT11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AU11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AV11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AW11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AX11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AY11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AZ11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BA11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BB11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BC11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BD11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BE11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BF11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BG11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BH11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BI11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BJ11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BK11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BL11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BM11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BN11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BO11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BP11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BQ11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BR11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BS11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BT11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BU11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BV11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BW11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BX11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BY11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BZ11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CA11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CB11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CC11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CD11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -6234,34 +6234,34 @@
         <v>82</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <v>0.6801664253685634</v>
+      </c>
+      <c r="F2">
         <v>7</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.5124740858968775</v>
-      </c>
       <c r="G2">
+        <v>600</v>
+      </c>
+      <c r="H2">
         <v>4</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2">
         <v>19</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K2" t="s">
-        <v>105</v>
       </c>
       <c r="L2" t="s">
         <v>106</v>
@@ -6275,34 +6275,34 @@
         <v>83</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
         <v>0.5</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>9</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.532916815843316</v>
       </c>
       <c r="F3">
-        <v>0.6116821648737494</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>600</v>
       </c>
       <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3">
         <v>19</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>104</v>
-      </c>
-      <c r="K3" t="s">
-        <v>105</v>
       </c>
       <c r="L3" t="s">
         <v>106</v>
@@ -6316,34 +6316,34 @@
         <v>84</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>0.7525322463192126</v>
+      </c>
+      <c r="F4">
         <v>6</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.6300412101011675</v>
-      </c>
       <c r="G4">
+        <v>600</v>
+      </c>
+      <c r="H4">
         <v>4</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4">
         <v>19</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K4" t="s">
-        <v>105</v>
       </c>
       <c r="L4" t="s">
         <v>106</v>
@@ -6357,34 +6357,34 @@
         <v>85</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>48</v>
       </c>
       <c r="D5">
-        <v>52</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.5845762800595218</v>
       </c>
       <c r="F5">
-        <v>0.5457141070221821</v>
+        <v>51</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>600</v>
       </c>
       <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5">
         <v>19</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>104</v>
-      </c>
-      <c r="K5" t="s">
-        <v>105</v>
       </c>
       <c r="L5" t="s">
         <v>106</v>
@@ -6398,34 +6398,34 @@
         <v>86</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>0.719617371368327</v>
+      </c>
+      <c r="F6">
         <v>6</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.5878476200678291</v>
-      </c>
       <c r="G6">
+        <v>600</v>
+      </c>
+      <c r="H6">
         <v>4</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6">
         <v>19</v>
-      </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>104</v>
-      </c>
-      <c r="K6" t="s">
-        <v>105</v>
       </c>
       <c r="L6" t="s">
         <v>106</v>
@@ -6439,34 +6439,34 @@
         <v>87</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.5</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.6581355178407804</v>
+      </c>
+      <c r="F7">
         <v>8</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.5468922701978909</v>
-      </c>
       <c r="G7">
+        <v>600</v>
+      </c>
+      <c r="H7">
         <v>7</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7">
         <v>19</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K7" t="s">
-        <v>105</v>
       </c>
       <c r="L7" t="s">
         <v>106</v>
@@ -6480,34 +6480,34 @@
         <v>88</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>0.6093382036676664</v>
+      </c>
+      <c r="F8">
         <v>6</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.5000917392020853</v>
-      </c>
       <c r="G8">
+        <v>600</v>
+      </c>
+      <c r="H8">
         <v>4</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8">
         <v>19</v>
-      </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>104</v>
-      </c>
-      <c r="K8" t="s">
-        <v>105</v>
       </c>
       <c r="L8" t="s">
         <v>106</v>
@@ -6521,34 +6521,34 @@
         <v>89</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>48</v>
       </c>
       <c r="D9">
-        <v>52</v>
+        <v>0.5</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.536561938474857</v>
       </c>
       <c r="F9">
-        <v>0.5514370587567269</v>
+        <v>50</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>600</v>
       </c>
       <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9">
         <v>19</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>104</v>
-      </c>
-      <c r="K9" t="s">
-        <v>105</v>
       </c>
       <c r="L9" t="s">
         <v>106</v>
@@ -6562,34 +6562,34 @@
         <v>90</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>0.7110817378991393</v>
+      </c>
+      <c r="F10">
         <v>7</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.504145311420227</v>
-      </c>
       <c r="G10">
+        <v>600</v>
+      </c>
+      <c r="H10">
         <v>4</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10">
         <v>19</v>
-      </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>104</v>
-      </c>
-      <c r="K10" t="s">
-        <v>105</v>
       </c>
       <c r="L10" t="s">
         <v>106</v>
@@ -6603,34 +6603,34 @@
         <v>91</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.5</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
+        <v>0.7649369228175611</v>
+      </c>
+      <c r="F11">
         <v>5</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.5624568570221599</v>
-      </c>
       <c r="G11">
+        <v>600</v>
+      </c>
+      <c r="H11">
         <v>4</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11">
         <v>19</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>104</v>
-      </c>
-      <c r="K11" t="s">
-        <v>105</v>
       </c>
       <c r="L11" t="s">
         <v>106</v>
@@ -6698,34 +6698,34 @@
         <v>82</v>
       </c>
       <c r="B2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>0.7</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.7788309122595714</v>
       </c>
       <c r="F2">
-        <v>0.7310799343606958</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>600</v>
       </c>
       <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2">
         <v>19</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K2" t="s">
-        <v>105</v>
       </c>
       <c r="L2" t="s">
         <v>106</v>
@@ -6739,34 +6739,34 @@
         <v>83</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
         <v>0.7</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.7177051548828265</v>
       </c>
       <c r="F3">
-        <v>0.8287167326957395</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3">
         <v>19</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>104</v>
-      </c>
-      <c r="K3" t="s">
-        <v>105</v>
       </c>
       <c r="L3" t="s">
         <v>106</v>
@@ -6780,34 +6780,34 @@
         <v>84</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>0.7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.7525322463192126</v>
       </c>
       <c r="F4">
-        <v>0.7447683848414656</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>600</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4">
         <v>19</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K4" t="s">
-        <v>105</v>
       </c>
       <c r="L4" t="s">
         <v>106</v>
@@ -6821,34 +6821,34 @@
         <v>85</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>48</v>
       </c>
       <c r="D5">
-        <v>56</v>
+        <v>0.7</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.7650310846886541</v>
       </c>
       <c r="F5">
-        <v>0.706690475740354</v>
+        <v>52</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>600</v>
       </c>
       <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5">
         <v>19</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>104</v>
-      </c>
-      <c r="K5" t="s">
-        <v>105</v>
       </c>
       <c r="L5" t="s">
         <v>106</v>
@@ -6862,34 +6862,34 @@
         <v>86</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>0.7</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.719617371368327</v>
       </c>
       <c r="F6">
-        <v>0.7122437984176251</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>600</v>
       </c>
       <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6">
         <v>19</v>
-      </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>104</v>
-      </c>
-      <c r="K6" t="s">
-        <v>105</v>
       </c>
       <c r="L6" t="s">
         <v>106</v>
@@ -6903,34 +6903,34 @@
         <v>87</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.7</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>12</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.7591033907594755</v>
       </c>
       <c r="F7">
-        <v>0.8308591706974984</v>
+        <v>9</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>600</v>
       </c>
       <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7">
         <v>19</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K7" t="s">
-        <v>105</v>
       </c>
       <c r="L7" t="s">
         <v>106</v>
@@ -6944,34 +6944,34 @@
         <v>88</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>0.7</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.7846401749967188</v>
       </c>
       <c r="F8">
-        <v>0.7061199513441007</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>600</v>
       </c>
       <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8">
         <v>19</v>
-      </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>104</v>
-      </c>
-      <c r="K8" t="s">
-        <v>105</v>
       </c>
       <c r="L8" t="s">
         <v>106</v>
@@ -6985,34 +6985,34 @@
         <v>89</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>48</v>
       </c>
       <c r="D9">
-        <v>57</v>
+        <v>0.7</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.8009142173237289</v>
       </c>
       <c r="F9">
-        <v>0.7347594840138312</v>
+        <v>52</v>
       </c>
       <c r="G9">
-        <v>9</v>
+        <v>600</v>
       </c>
       <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9">
         <v>19</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>104</v>
-      </c>
-      <c r="K9" t="s">
-        <v>105</v>
       </c>
       <c r="L9" t="s">
         <v>106</v>
@@ -7026,34 +7026,34 @@
         <v>90</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>0.7</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.7110817378991393</v>
       </c>
       <c r="F10">
-        <v>0.7380252988276823</v>
+        <v>7</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>600</v>
       </c>
       <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10">
         <v>19</v>
-      </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>104</v>
-      </c>
-      <c r="K10" t="s">
-        <v>105</v>
       </c>
       <c r="L10" t="s">
         <v>106</v>
@@ -7067,34 +7067,34 @@
         <v>91</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.7</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>7</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.7649369228175611</v>
       </c>
       <c r="F11">
-        <v>0.7025874077585128</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>600</v>
       </c>
       <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11">
         <v>19</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>104</v>
-      </c>
-      <c r="K11" t="s">
-        <v>105</v>
       </c>
       <c r="L11" t="s">
         <v>106</v>
@@ -7162,34 +7162,34 @@
         <v>82</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>0.8</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.927995472555996</v>
       </c>
       <c r="F2">
-        <v>0.8354260236898727</v>
+        <v>11</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2">
         <v>19</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K2" t="s">
-        <v>105</v>
       </c>
       <c r="L2" t="s">
         <v>106</v>
@@ -7203,34 +7203,34 @@
         <v>83</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
         <v>0.8</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.8945938969444773</v>
+      </c>
+      <c r="F3">
         <v>12</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.8287167326957395</v>
-      </c>
       <c r="G3">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="H3">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3">
         <v>19</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>104</v>
-      </c>
-      <c r="K3" t="s">
-        <v>105</v>
       </c>
       <c r="L3" t="s">
         <v>106</v>
@@ -7244,34 +7244,34 @@
         <v>84</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>0.8</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.842060638674011</v>
       </c>
       <c r="F4">
-        <v>0.808009059481396</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>600</v>
       </c>
       <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4">
         <v>19</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K4" t="s">
-        <v>105</v>
       </c>
       <c r="L4" t="s">
         <v>106</v>
@@ -7285,34 +7285,34 @@
         <v>85</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>48</v>
       </c>
       <c r="D5">
-        <v>58</v>
+        <v>0.8</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8850652026753624</v>
       </c>
       <c r="F5">
-        <v>0.820806188695938</v>
+        <v>54</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5">
         <v>19</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>104</v>
-      </c>
-      <c r="K5" t="s">
-        <v>105</v>
       </c>
       <c r="L5" t="s">
         <v>106</v>
@@ -7326,34 +7326,34 @@
         <v>86</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>0.8</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.805829786738169</v>
       </c>
       <c r="F6">
-        <v>0.8474724183527186</v>
+        <v>9</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>600</v>
       </c>
       <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6">
         <v>19</v>
-      </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>104</v>
-      </c>
-      <c r="K6" t="s">
-        <v>105</v>
       </c>
       <c r="L6" t="s">
         <v>106</v>
@@ -7367,34 +7367,34 @@
         <v>87</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.8</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F7">
         <v>12</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.8308591706974984</v>
-      </c>
       <c r="G7">
+        <v>600</v>
+      </c>
+      <c r="H7">
         <v>11</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7">
         <v>19</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K7" t="s">
-        <v>105</v>
       </c>
       <c r="L7" t="s">
         <v>106</v>
@@ -7408,34 +7408,34 @@
         <v>88</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
+        <v>0.8</v>
+      </c>
+      <c r="E8">
+        <v>0.953501766757335</v>
+      </c>
+      <c r="F8">
         <v>12</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.8550067786040363</v>
-      </c>
       <c r="G8">
+        <v>600</v>
+      </c>
+      <c r="H8">
         <v>10</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8">
         <v>19</v>
-      </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>104</v>
-      </c>
-      <c r="K8" t="s">
-        <v>105</v>
       </c>
       <c r="L8" t="s">
         <v>106</v>
@@ -7449,34 +7449,34 @@
         <v>89</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>48</v>
       </c>
       <c r="D9">
-        <v>60</v>
+        <v>0.8</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.8009142173237289</v>
       </c>
       <c r="F9">
-        <v>0.8625945901022909</v>
+        <v>52</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9">
         <v>19</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>104</v>
-      </c>
-      <c r="K9" t="s">
-        <v>105</v>
       </c>
       <c r="L9" t="s">
         <v>106</v>
@@ -7490,34 +7490,34 @@
         <v>90</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>0.8</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.8261801772173332</v>
       </c>
       <c r="F10">
-        <v>0.8122858735893437</v>
+        <v>9</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>600</v>
       </c>
       <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10">
         <v>19</v>
-      </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>104</v>
-      </c>
-      <c r="K10" t="s">
-        <v>105</v>
       </c>
       <c r="L10" t="s">
         <v>106</v>
@@ -7531,34 +7531,34 @@
         <v>91</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.8</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>11</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.8940830541815687</v>
       </c>
       <c r="F11">
-        <v>0.8455454055045354</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11">
         <v>19</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>104</v>
-      </c>
-      <c r="K11" t="s">
-        <v>105</v>
       </c>
       <c r="L11" t="s">
         <v>106</v>
@@ -7626,34 +7626,34 @@
         <v>82</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>0.9</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.927995472555996</v>
       </c>
       <c r="F2">
-        <v>0.9143185525701699</v>
+        <v>11</v>
       </c>
       <c r="G2">
+        <v>600</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2">
         <v>19</v>
-      </c>
-      <c r="H2">
-        <v>19</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K2" t="s">
-        <v>105</v>
       </c>
       <c r="L2" t="s">
         <v>106</v>
@@ -7667,34 +7667,34 @@
         <v>83</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
         <v>0.9</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.9652049336349571</v>
+      </c>
+      <c r="F3">
         <v>13</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.9050351528248489</v>
-      </c>
       <c r="G3">
-        <v>11</v>
+        <v>600</v>
       </c>
       <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3">
         <v>19</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>104</v>
-      </c>
-      <c r="K3" t="s">
-        <v>105</v>
       </c>
       <c r="L3" t="s">
         <v>106</v>
@@ -7708,34 +7708,34 @@
         <v>84</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
+        <v>0.9</v>
+      </c>
+      <c r="E4">
+        <v>0.9723230433036986</v>
+      </c>
+      <c r="F4">
         <v>11</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.9091575240883168</v>
-      </c>
       <c r="G4">
+        <v>600</v>
+      </c>
+      <c r="H4">
         <v>9</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4">
         <v>19</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K4" t="s">
-        <v>105</v>
       </c>
       <c r="L4" t="s">
         <v>106</v>
@@ -7749,34 +7749,34 @@
         <v>85</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>48</v>
       </c>
       <c r="D5">
-        <v>68</v>
+        <v>0.9</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9091531248579604</v>
       </c>
       <c r="F5">
-        <v>0.9002405533724845</v>
+        <v>56</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5">
         <v>19</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>104</v>
-      </c>
-      <c r="K5" t="s">
-        <v>105</v>
       </c>
       <c r="L5" t="s">
         <v>106</v>
@@ -7790,34 +7790,34 @@
         <v>86</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>0.9</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9431209767284823</v>
       </c>
       <c r="F6">
-        <v>0.9120492550458533</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6">
         <v>19</v>
-      </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>104</v>
-      </c>
-      <c r="K6" t="s">
-        <v>105</v>
       </c>
       <c r="L6" t="s">
         <v>106</v>
@@ -7831,34 +7831,34 @@
         <v>87</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.9</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="F7">
-        <v>0.9038437301203019</v>
+        <v>12</v>
       </c>
       <c r="G7">
+        <v>600</v>
+      </c>
+      <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7">
         <v>19</v>
-      </c>
-      <c r="H7">
-        <v>19</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K7" t="s">
-        <v>105</v>
       </c>
       <c r="L7" t="s">
         <v>106</v>
@@ -7872,34 +7872,34 @@
         <v>88</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>0.9</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.953501766757335</v>
       </c>
       <c r="F8">
-        <v>0.9033164362921918</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8">
         <v>19</v>
-      </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>104</v>
-      </c>
-      <c r="K8" t="s">
-        <v>105</v>
       </c>
       <c r="L8" t="s">
         <v>106</v>
@@ -7913,34 +7913,34 @@
         <v>89</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>48</v>
       </c>
       <c r="D9">
-        <v>67</v>
+        <v>0.9</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.9081959304471977</v>
       </c>
       <c r="F9">
-        <v>0.9105363897393067</v>
+        <v>57</v>
       </c>
       <c r="G9">
+        <v>600</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9">
         <v>19</v>
-      </c>
-      <c r="H9">
-        <v>19</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>104</v>
-      </c>
-      <c r="K9" t="s">
-        <v>105</v>
       </c>
       <c r="L9" t="s">
         <v>106</v>
@@ -7954,34 +7954,34 @@
         <v>90</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>0.9</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.9032846090406526</v>
       </c>
       <c r="F10">
-        <v>0.9119228145819945</v>
+        <v>12</v>
       </c>
       <c r="G10">
+        <v>600</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10">
         <v>19</v>
-      </c>
-      <c r="H10">
-        <v>19</v>
-      </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>104</v>
-      </c>
-      <c r="K10" t="s">
-        <v>105</v>
       </c>
       <c r="L10" t="s">
         <v>106</v>
@@ -7995,34 +7995,34 @@
         <v>91</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.9</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>14</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.9267348499694184</v>
       </c>
       <c r="F11">
-        <v>0.9011864551821077</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11">
         <v>19</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>104</v>
-      </c>
-      <c r="K11" t="s">
-        <v>105</v>
       </c>
       <c r="L11" t="s">
         <v>106</v>
